--- a/raw_data/20200818_saline/20200818_Sensor3_Test_86.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_86.xlsx
@@ -1,3031 +1,3447 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979D1DA8-7125-455E-8E89-7BBDE9D0E441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>77055.955953</v>
+        <v>77055.955952999997</v>
       </c>
       <c r="B2" s="1">
         <v>21.404432</v>
       </c>
       <c r="C2" s="1">
-        <v>1149.340000</v>
+        <v>1149.3399999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-255.296000</v>
+        <v>-255.29599999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>77066.689874</v>
+        <v>77066.689874000003</v>
       </c>
       <c r="G2" s="1">
-        <v>21.407414</v>
+        <v>21.407413999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1170.850000</v>
+        <v>1170.8499999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-215.629000</v>
+        <v>-215.62899999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>77077.128676</v>
+        <v>77077.128675999993</v>
       </c>
       <c r="L2" s="1">
         <v>21.410314</v>
       </c>
       <c r="M2" s="1">
-        <v>1200.080000</v>
+        <v>1200.08</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.247000</v>
+        <v>-151.24700000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>77087.602198</v>
+        <v>77087.602197999993</v>
       </c>
       <c r="Q2" s="1">
-        <v>21.413223</v>
+        <v>21.413222999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1208.370000</v>
+        <v>1208.3699999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.482000</v>
+        <v>-129.482</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>77097.819289</v>
+        <v>77097.819289000006</v>
       </c>
       <c r="V2" s="1">
-        <v>21.416061</v>
+        <v>21.416060999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1216.130000</v>
+        <v>1216.1300000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.737000</v>
+        <v>-108.73699999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>77108.269004</v>
+        <v>77108.269004000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>21.418964</v>
+        <v>21.418963999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1224.220000</v>
+        <v>1224.22</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.636900</v>
+        <v>-91.636899999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>77119.174293</v>
+        <v>77119.174293000004</v>
       </c>
       <c r="AF2" s="1">
-        <v>21.421993</v>
+        <v>21.421993000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1229.180000</v>
+        <v>1229.18</v>
       </c>
       <c r="AH2" s="1">
-        <v>-87.087400</v>
+        <v>-87.087400000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>77129.627231</v>
+        <v>77129.627231000006</v>
       </c>
       <c r="AK2" s="1">
         <v>21.424896</v>
       </c>
       <c r="AL2" s="1">
-        <v>1236.490000</v>
+        <v>1236.49</v>
       </c>
       <c r="AM2" s="1">
-        <v>-90.260200</v>
+        <v>-90.260199999999998</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>77139.960914</v>
+        <v>77139.960913999996</v>
       </c>
       <c r="AP2" s="1">
-        <v>21.427767</v>
+        <v>21.427766999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1244.630000</v>
+        <v>1244.6300000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.112000</v>
+        <v>-102.11199999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>77150.538087</v>
+        <v>77150.538086999994</v>
       </c>
       <c r="AU2" s="1">
         <v>21.430705</v>
       </c>
       <c r="AV2" s="1">
-        <v>1254.820000</v>
+        <v>1254.82</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.330000</v>
+        <v>-121.33</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>77161.324564</v>
+        <v>77161.324563999995</v>
       </c>
       <c r="AZ2" s="1">
-        <v>21.433701</v>
+        <v>21.433700999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1263.390000</v>
+        <v>1263.3900000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.735000</v>
+        <v>-138.73500000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>77171.562519</v>
+        <v>77171.562518999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>21.436545</v>
+        <v>21.436544999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1304.000000</v>
+        <v>1304</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.246000</v>
+        <v>-220.24600000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>77182.485430</v>
+        <v>77182.485430000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>21.439579</v>
+        <v>21.439578999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1374.160000</v>
+        <v>1374.16</v>
       </c>
       <c r="BL2" s="1">
-        <v>-355.693000</v>
+        <v>-355.69299999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>77193.508474</v>
+        <v>77193.508474000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>21.442641</v>
+        <v>21.442640999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1489.110000</v>
+        <v>1489.11</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-575.835000</v>
+        <v>-575.83500000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>77203.924460</v>
+        <v>77203.924459999995</v>
       </c>
       <c r="BT2" s="1">
         <v>21.445535</v>
       </c>
       <c r="BU2" s="1">
-        <v>1621.820000</v>
+        <v>1621.82</v>
       </c>
       <c r="BV2" s="1">
-        <v>-823.004000</v>
+        <v>-823.00400000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>77214.596384</v>
+        <v>77214.596384000004</v>
       </c>
       <c r="BY2" s="1">
-        <v>21.448499</v>
+        <v>21.448499000000002</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1774.410000</v>
+        <v>1774.41</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1092.150000</v>
+        <v>-1092.1500000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>77225.423056</v>
       </c>
       <c r="CD2" s="1">
-        <v>21.451506</v>
+        <v>21.451505999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>2192.980000</v>
+        <v>2192.98</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1739.850000</v>
+        <v>-1739.85</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>77056.677135</v>
+        <v>77056.677135000005</v>
       </c>
       <c r="B3" s="1">
         <v>21.404633</v>
       </c>
       <c r="C3" s="1">
-        <v>1149.270000</v>
+        <v>1149.27</v>
       </c>
       <c r="D3" s="1">
-        <v>-255.654000</v>
+        <v>-255.654</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>77067.031618</v>
+        <v>77067.031617999994</v>
       </c>
       <c r="G3" s="1">
-        <v>21.407509</v>
+        <v>21.407509000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1171.170000</v>
+        <v>1171.17</v>
       </c>
       <c r="I3" s="1">
-        <v>-215.959000</v>
+        <v>-215.959</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>77077.471412</v>
+        <v>77077.471411999999</v>
       </c>
       <c r="L3" s="1">
-        <v>21.410409</v>
+        <v>21.410409000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1199.860000</v>
+        <v>1199.8599999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.222000</v>
+        <v>-151.22200000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>77087.960356</v>
+        <v>77087.960355999996</v>
       </c>
       <c r="Q3" s="1">
-        <v>21.413322</v>
+        <v>21.413322000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1208.360000</v>
+        <v>1208.3599999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.531000</v>
+        <v>-129.53100000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>77098.493849</v>
+        <v>77098.493849000006</v>
       </c>
       <c r="V3" s="1">
         <v>21.416248</v>
       </c>
       <c r="W3" s="1">
-        <v>1216.110000</v>
+        <v>1216.1099999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.682000</v>
+        <v>-108.682</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>77108.976298</v>
+        <v>77108.976297999994</v>
       </c>
       <c r="AA3" s="1">
-        <v>21.419160</v>
+        <v>21.419160000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>1224.260000</v>
+        <v>1224.26</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.606900</v>
+        <v>-91.606899999999996</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>77119.565390</v>
+        <v>77119.565390000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>21.422101</v>
+        <v>21.422101000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1229.120000</v>
+        <v>1229.1199999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-87.097100</v>
+        <v>-87.097099999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>77130.031966</v>
+        <v>77130.031965999995</v>
       </c>
       <c r="AK3" s="1">
-        <v>21.425009</v>
+        <v>21.425008999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1236.530000</v>
+        <v>1236.53</v>
       </c>
       <c r="AM3" s="1">
-        <v>-90.261600</v>
+        <v>-90.261600000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>77140.327425</v>
+        <v>77140.327424999996</v>
       </c>
       <c r="AP3" s="1">
-        <v>21.427869</v>
+        <v>21.427869000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1244.660000</v>
+        <v>1244.6600000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.108000</v>
+        <v>-102.108</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>77150.921482</v>
+        <v>77150.921482000005</v>
       </c>
       <c r="AU3" s="1">
         <v>21.430812</v>
       </c>
       <c r="AV3" s="1">
-        <v>1254.810000</v>
+        <v>1254.81</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.327000</v>
+        <v>-121.327</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>77161.689125</v>
+        <v>77161.689125000004</v>
       </c>
       <c r="AZ3" s="1">
-        <v>21.433803</v>
+        <v>21.433803000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1263.390000</v>
+        <v>1263.3900000000001</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.737000</v>
+        <v>-138.73699999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>77171.985111</v>
+        <v>77171.985111000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>21.436663</v>
+        <v>21.436662999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1303.990000</v>
+        <v>1303.99</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.275000</v>
+        <v>-220.27500000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>77182.596527</v>
+        <v>77182.596527000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>21.439610</v>
+        <v>21.439609999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1374.120000</v>
+        <v>1374.12</v>
       </c>
       <c r="BL3" s="1">
-        <v>-355.718000</v>
+        <v>-355.71800000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>77193.628507</v>
+        <v>77193.628507000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>21.442675</v>
+        <v>21.442675000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1489.120000</v>
+        <v>1489.12</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-575.835000</v>
+        <v>-575.83500000000004</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>77204.361475</v>
+        <v>77204.361474999998</v>
       </c>
       <c r="BT3" s="1">
         <v>21.445656</v>
       </c>
       <c r="BU3" s="1">
-        <v>1621.670000</v>
+        <v>1621.67</v>
       </c>
       <c r="BV3" s="1">
-        <v>-823.112000</v>
+        <v>-823.11199999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>77215.073534</v>
+        <v>77215.073533999996</v>
       </c>
       <c r="BY3" s="1">
         <v>21.448632</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1774.510000</v>
+        <v>1774.51</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1091.950000</v>
+        <v>-1091.95</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>77225.966671</v>
+        <v>77225.966671000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>21.451657</v>
+        <v>21.451657000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2191.930000</v>
+        <v>2191.9299999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1738.650000</v>
+        <v>-1738.65</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>77057.017887</v>
+        <v>77057.017886999995</v>
       </c>
       <c r="B4" s="1">
-        <v>21.404727</v>
+        <v>21.404727000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1149.310000</v>
+        <v>1149.31</v>
       </c>
       <c r="D4" s="1">
-        <v>-255.243000</v>
+        <v>-255.24299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>77067.374886</v>
+        <v>77067.374886000005</v>
       </c>
       <c r="G4" s="1">
-        <v>21.407604</v>
+        <v>21.407603999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1170.660000</v>
+        <v>1170.6600000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-215.780000</v>
+        <v>-215.78</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>77077.815139</v>
+        <v>77077.815138999998</v>
       </c>
       <c r="L4" s="1">
         <v>21.410504</v>
       </c>
       <c r="M4" s="1">
-        <v>1199.900000</v>
+        <v>1199.9000000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.146000</v>
+        <v>-151.14599999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>77088.618040</v>
+        <v>77088.618040000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>21.413505</v>
+        <v>21.413505000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1208.260000</v>
+        <v>1208.26</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.502000</v>
+        <v>-129.50200000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>77098.867335</v>
+        <v>77098.867335000003</v>
       </c>
       <c r="V4" s="1">
         <v>21.416352</v>
       </c>
       <c r="W4" s="1">
-        <v>1216.100000</v>
+        <v>1216.0999999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.849000</v>
+        <v>-108.849</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>77109.348825</v>
+        <v>77109.348824999994</v>
       </c>
       <c r="AA4" s="1">
-        <v>21.419264</v>
+        <v>21.419263999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>1224.290000</v>
+        <v>1224.29</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.569000</v>
+        <v>-91.569000000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>77119.907151</v>
+        <v>77119.907151000007</v>
       </c>
       <c r="AF4" s="1">
         <v>21.422196</v>
       </c>
       <c r="AG4" s="1">
-        <v>1229.130000</v>
+        <v>1229.1300000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-87.066800</v>
+        <v>-87.066800000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>77130.380157</v>
+        <v>77130.380157000007</v>
       </c>
       <c r="AK4" s="1">
         <v>21.425106</v>
       </c>
       <c r="AL4" s="1">
-        <v>1236.540000</v>
+        <v>1236.54</v>
       </c>
       <c r="AM4" s="1">
-        <v>-90.271700</v>
+        <v>-90.271699999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>77140.687520</v>
+        <v>77140.687520000007</v>
       </c>
       <c r="AP4" s="1">
-        <v>21.427969</v>
+        <v>21.427969000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1244.660000</v>
+        <v>1244.6600000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.105000</v>
+        <v>-102.105</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>77151.343074</v>
+        <v>77151.343074000004</v>
       </c>
       <c r="AU4" s="1">
-        <v>21.430929</v>
+        <v>21.430928999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1254.820000</v>
+        <v>1254.82</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.333000</v>
+        <v>-121.333</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>77162.128580</v>
+        <v>77162.128580000004</v>
       </c>
       <c r="AZ4" s="1">
-        <v>21.433925</v>
+        <v>21.433924999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1263.400000</v>
+        <v>1263.4000000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.743000</v>
+        <v>-138.74299999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>77172.302800</v>
+        <v>77172.302800000005</v>
       </c>
       <c r="BE4" s="1">
-        <v>21.436751</v>
+        <v>21.436751000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1304.000000</v>
+        <v>1304</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.264000</v>
+        <v>-220.26400000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>77182.952618</v>
+        <v>77182.952617999996</v>
       </c>
       <c r="BJ4" s="1">
-        <v>21.439709</v>
+        <v>21.439709000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1374.170000</v>
+        <v>1374.17</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.679000</v>
+        <v>-355.67899999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>77194.039194</v>
+        <v>77194.039193999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>21.442789</v>
+        <v>21.442789000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1489.150000</v>
+        <v>1489.15</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-575.798000</v>
+        <v>-575.798</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>77204.797420</v>
+        <v>77204.797420000003</v>
       </c>
       <c r="BT4" s="1">
         <v>21.445777</v>
       </c>
       <c r="BU4" s="1">
-        <v>1621.660000</v>
+        <v>1621.66</v>
       </c>
       <c r="BV4" s="1">
-        <v>-823.265000</v>
+        <v>-823.26499999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>77215.503565</v>
+        <v>77215.503565000006</v>
       </c>
       <c r="BY4" s="1">
-        <v>21.448751</v>
+        <v>21.448751000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1774.420000</v>
+        <v>1774.42</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1092.050000</v>
+        <v>-1092.05</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>77226.484991</v>
+        <v>77226.484991000005</v>
       </c>
       <c r="CD4" s="1">
         <v>21.451801</v>
       </c>
       <c r="CE4" s="1">
-        <v>2190.860000</v>
+        <v>2190.86</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1740.900000</v>
+        <v>-1740.9</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>77057.360126</v>
       </c>
       <c r="B5" s="1">
-        <v>21.404822</v>
+        <v>21.404821999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1149.410000</v>
+        <v>1149.4100000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-255.448000</v>
+        <v>-255.44800000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>77068.038033</v>
+        <v>77068.038033000004</v>
       </c>
       <c r="G5" s="1">
         <v>21.407788</v>
       </c>
       <c r="H5" s="1">
-        <v>1170.420000</v>
+        <v>1170.42</v>
       </c>
       <c r="I5" s="1">
-        <v>-215.821000</v>
+        <v>-215.821</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>77078.549752</v>
+        <v>77078.549752000006</v>
       </c>
       <c r="L5" s="1">
         <v>21.410708</v>
       </c>
       <c r="M5" s="1">
-        <v>1199.770000</v>
+        <v>1199.77</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.152000</v>
+        <v>-151.15199999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>77089.004388</v>
+        <v>77089.004388000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>21.413612</v>
+        <v>21.413612000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1208.250000</v>
+        <v>1208.25</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.442000</v>
+        <v>-129.44200000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>77099.214535</v>
+        <v>77099.214535000006</v>
       </c>
       <c r="V5" s="1">
-        <v>21.416448</v>
+        <v>21.416447999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1216.130000</v>
+        <v>1216.1300000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.566000</v>
+        <v>-108.566</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>77109.694505</v>
+        <v>77109.694505000007</v>
       </c>
       <c r="AA5" s="1">
-        <v>21.419360</v>
+        <v>21.419360000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1224.370000</v>
+        <v>1224.3699999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.708500</v>
+        <v>-91.708500000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>77120.246395</v>
+        <v>77120.246394999995</v>
       </c>
       <c r="AF5" s="1">
-        <v>21.422291</v>
+        <v>21.422291000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1229.140000</v>
+        <v>1229.1400000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-87.058500</v>
+        <v>-87.058499999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>77130.821101</v>
+        <v>77130.821100999994</v>
       </c>
       <c r="AK5" s="1">
-        <v>21.425228</v>
+        <v>21.425228000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1236.510000</v>
+        <v>1236.51</v>
       </c>
       <c r="AM5" s="1">
-        <v>-90.266900</v>
+        <v>-90.266900000000007</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>77141.105648</v>
+        <v>77141.105647999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>21.428085</v>
+        <v>21.428084999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1244.640000</v>
+        <v>1244.6400000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.093000</v>
+        <v>-102.093</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>77151.649106</v>
+        <v>77151.649105999997</v>
       </c>
       <c r="AU5" s="1">
-        <v>21.431014</v>
+        <v>21.431014000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1254.820000</v>
+        <v>1254.82</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.323000</v>
+        <v>-121.32299999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>77162.409844</v>
+        <v>77162.409843999994</v>
       </c>
       <c r="AZ5" s="1">
-        <v>21.434003</v>
+        <v>21.434003000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1263.400000</v>
+        <v>1263.4000000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.739000</v>
+        <v>-138.739</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>77172.664102</v>
+        <v>77172.664101999995</v>
       </c>
       <c r="BE5" s="1">
-        <v>21.436851</v>
+        <v>21.436851000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1304.000000</v>
+        <v>1304</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.273000</v>
+        <v>-220.273</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>77183.325608</v>
+        <v>77183.325607999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>21.439813</v>
+        <v>21.439813000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1374.180000</v>
+        <v>1374.18</v>
       </c>
       <c r="BL5" s="1">
-        <v>-355.734000</v>
+        <v>-355.73399999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>77194.436985</v>
+        <v>77194.436984999993</v>
       </c>
       <c r="BO5" s="1">
-        <v>21.442899</v>
+        <v>21.442899000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1489.130000</v>
+        <v>1489.13</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-575.768000</v>
+        <v>-575.76800000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>77205.225008</v>
+        <v>77205.225007999994</v>
       </c>
       <c r="BT5" s="1">
-        <v>21.445896</v>
+        <v>21.445896000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1621.670000</v>
+        <v>1621.67</v>
       </c>
       <c r="BV5" s="1">
-        <v>-823.083000</v>
+        <v>-823.08299999999997</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>77215.914765</v>
+        <v>77215.914764999994</v>
       </c>
       <c r="BY5" s="1">
-        <v>21.448865</v>
+        <v>21.448865000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1774.690000</v>
+        <v>1774.69</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1092.090000</v>
+        <v>-1092.0899999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>77227.027120</v>
+        <v>77227.027119999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>21.451952</v>
+        <v>21.451951999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2192.940000</v>
+        <v>2192.94</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1739.720000</v>
+        <v>-1739.72</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>77058.028239</v>
+        <v>77058.028239000007</v>
       </c>
       <c r="B6" s="1">
-        <v>21.405008</v>
+        <v>21.405007999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1149.270000</v>
+        <v>1149.27</v>
       </c>
       <c r="D6" s="1">
-        <v>-255.215000</v>
+        <v>-255.215</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>77068.411488</v>
+        <v>77068.411487999998</v>
       </c>
       <c r="G6" s="1">
         <v>21.407892</v>
       </c>
       <c r="H6" s="1">
-        <v>1170.600000</v>
+        <v>1170.5999999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-215.857000</v>
+        <v>-215.857</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>77078.854754</v>
       </c>
       <c r="L6" s="1">
-        <v>21.410793</v>
+        <v>21.410793000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>1199.960000</v>
+        <v>1199.96</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.100000</v>
+        <v>-151.1</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>77089.351588</v>
+        <v>77089.351588000005</v>
       </c>
       <c r="Q6" s="1">
-        <v>21.413709</v>
+        <v>21.413709000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1208.310000</v>
+        <v>1208.31</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.426000</v>
+        <v>-129.42599999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>77099.566236</v>
+        <v>77099.566235999999</v>
       </c>
       <c r="V6" s="1">
         <v>21.416546</v>
       </c>
       <c r="W6" s="1">
-        <v>1216.030000</v>
+        <v>1216.03</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.670000</v>
+        <v>-108.67</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>77110.046666</v>
+        <v>77110.046665999995</v>
       </c>
       <c r="AA6" s="1">
-        <v>21.419457</v>
+        <v>21.419457000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1224.250000</v>
+        <v>1224.25</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.574500</v>
+        <v>-91.5745</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>77120.680891</v>
+        <v>77120.680890999996</v>
       </c>
       <c r="AF6" s="1">
         <v>21.422411</v>
       </c>
       <c r="AG6" s="1">
-        <v>1229.150000</v>
+        <v>1229.1500000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-87.076500</v>
+        <v>-87.076499999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>77131.091421</v>
+        <v>77131.091421000005</v>
       </c>
       <c r="AK6" s="1">
         <v>21.425303</v>
       </c>
       <c r="AL6" s="1">
-        <v>1236.570000</v>
+        <v>1236.57</v>
       </c>
       <c r="AM6" s="1">
-        <v>-90.277200</v>
+        <v>-90.277199999999993</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>77141.409201</v>
+        <v>77141.409201000002</v>
       </c>
       <c r="AP6" s="1">
         <v>21.428169</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1244.660000</v>
+        <v>1244.6600000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.107000</v>
+        <v>-102.107</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>77152.013169</v>
+        <v>77152.013168999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>21.431115</v>
+        <v>21.431114999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>1254.810000</v>
+        <v>1254.81</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.322000</v>
+        <v>-121.322</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>77162.765443</v>
+        <v>77162.765442999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>21.434102</v>
+        <v>21.434101999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1263.380000</v>
+        <v>1263.3800000000001</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.745000</v>
+        <v>-138.745</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>77173.028165</v>
+        <v>77173.028164999996</v>
       </c>
       <c r="BE6" s="1">
-        <v>21.436952</v>
+        <v>21.436952000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1304.020000</v>
+        <v>1304.02</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.277000</v>
+        <v>-220.27699999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>77184.079528</v>
+        <v>77184.079528000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>21.440022</v>
+        <v>21.440021999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1374.160000</v>
+        <v>1374.16</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.737000</v>
+        <v>-355.73700000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>77194.877465</v>
+        <v>77194.877464999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>21.443022</v>
+        <v>21.443021999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1489.110000</v>
+        <v>1489.11</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-575.822000</v>
+        <v>-575.822</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>77205.638140</v>
+        <v>77205.638139999995</v>
       </c>
       <c r="BT6" s="1">
-        <v>21.446011</v>
+        <v>21.446010999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1621.680000</v>
+        <v>1621.68</v>
       </c>
       <c r="BV6" s="1">
-        <v>-823.185000</v>
+        <v>-823.18499999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>77216.348252</v>
+        <v>77216.348251999996</v>
       </c>
       <c r="BY6" s="1">
-        <v>21.448986</v>
+        <v>21.448986000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1774.400000</v>
+        <v>1774.4</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1092.040000</v>
+        <v>-1092.04</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>77227.564287</v>
+        <v>77227.564287000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>21.452101</v>
+        <v>21.452100999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2190.760000</v>
+        <v>2190.7600000000002</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1739.660000</v>
+        <v>-1739.66</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>77058.380893</v>
+        <v>77058.380892999994</v>
       </c>
       <c r="B7" s="1">
         <v>21.405106</v>
       </c>
       <c r="C7" s="1">
-        <v>1149.250000</v>
+        <v>1149.25</v>
       </c>
       <c r="D7" s="1">
-        <v>-255.519000</v>
+        <v>-255.51900000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>77068.758191</v>
+        <v>77068.758191000001</v>
       </c>
       <c r="G7" s="1">
         <v>21.407988</v>
       </c>
       <c r="H7" s="1">
-        <v>1170.150000</v>
+        <v>1170.1500000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-214.905000</v>
+        <v>-214.905</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>77079.199473</v>
+        <v>77079.199473000001</v>
       </c>
       <c r="L7" s="1">
-        <v>21.410889</v>
+        <v>21.410889000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1199.850000</v>
+        <v>1199.8499999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.278000</v>
+        <v>-151.27799999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>77089.701267</v>
+        <v>77089.701266999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>21.413806</v>
+        <v>21.413806000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1208.340000</v>
+        <v>1208.3399999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.531000</v>
+        <v>-129.53100000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>77099.987798</v>
+        <v>77099.987798000002</v>
       </c>
       <c r="V7" s="1">
         <v>21.416663</v>
       </c>
       <c r="W7" s="1">
-        <v>1216.130000</v>
+        <v>1216.1300000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.727000</v>
+        <v>-108.727</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>77110.465816</v>
+        <v>77110.465815999996</v>
       </c>
       <c r="AA7" s="1">
-        <v>21.419574</v>
+        <v>21.419574000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1224.330000</v>
+        <v>1224.33</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.609500</v>
+        <v>-91.609499999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>77120.934348</v>
+        <v>77120.934347999995</v>
       </c>
       <c r="AF7" s="1">
-        <v>21.422482</v>
+        <v>21.422481999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1229.170000</v>
+        <v>1229.17</v>
       </c>
       <c r="AH7" s="1">
-        <v>-87.077500</v>
+        <v>-87.077500000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>77131.441597</v>
+        <v>77131.441596999997</v>
       </c>
       <c r="AK7" s="1">
-        <v>21.425400</v>
+        <v>21.4254</v>
       </c>
       <c r="AL7" s="1">
-        <v>1236.530000</v>
+        <v>1236.53</v>
       </c>
       <c r="AM7" s="1">
-        <v>-90.269800</v>
+        <v>-90.269800000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>77141.767807</v>
+        <v>77141.767806999997</v>
       </c>
       <c r="AP7" s="1">
         <v>21.428269</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1244.660000</v>
+        <v>1244.6600000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.101000</v>
+        <v>-102.101</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>77152.378258</v>
+        <v>77152.378257999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>21.431216</v>
+        <v>21.431215999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1254.830000</v>
+        <v>1254.83</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.321000</v>
+        <v>-121.321</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>77163.347748</v>
       </c>
       <c r="AZ7" s="1">
-        <v>21.434263</v>
+        <v>21.434263000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1263.410000</v>
+        <v>1263.4100000000001</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.759000</v>
+        <v>-138.75899999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>77173.748390</v>
+        <v>77173.748389999993</v>
       </c>
       <c r="BE7" s="1">
-        <v>21.437152</v>
+        <v>21.437152000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1304.030000</v>
+        <v>1304.03</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.288000</v>
+        <v>-220.28800000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>77184.456022</v>
+        <v>77184.456021999998</v>
       </c>
       <c r="BJ7" s="1">
         <v>21.440127</v>
       </c>
       <c r="BK7" s="1">
-        <v>1374.130000</v>
+        <v>1374.13</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.722000</v>
+        <v>-355.72199999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>77195.257864</v>
+        <v>77195.257863999999</v>
       </c>
       <c r="BO7" s="1">
         <v>21.443127</v>
       </c>
       <c r="BP7" s="1">
-        <v>1489.140000</v>
+        <v>1489.14</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-575.796000</v>
+        <v>-575.79600000000005</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>77206.070191</v>
+        <v>77206.070191000006</v>
       </c>
       <c r="BT7" s="1">
-        <v>21.446131</v>
+        <v>21.446131000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1621.600000</v>
+        <v>1621.6</v>
       </c>
       <c r="BV7" s="1">
-        <v>-823.152000</v>
+        <v>-823.15200000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>77217.084811</v>
+        <v>77217.084810999993</v>
       </c>
       <c r="BY7" s="1">
-        <v>21.449190</v>
+        <v>21.449190000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1774.430000</v>
+        <v>1774.43</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1092.200000</v>
+        <v>-1092.2</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>77228.440717</v>
+        <v>77228.440717000005</v>
       </c>
       <c r="CD7" s="1">
-        <v>21.452345</v>
+        <v>21.452345000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2192.510000</v>
+        <v>2192.5100000000002</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1739.170000</v>
+        <v>-1739.17</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>77058.726644</v>
+        <v>77058.726643999995</v>
       </c>
       <c r="B8" s="1">
-        <v>21.405202</v>
+        <v>21.405201999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1149.390000</v>
+        <v>1149.3900000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-255.390000</v>
+        <v>-255.39</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>77069.101422</v>
+        <v>77069.101422000007</v>
       </c>
       <c r="G8" s="1">
-        <v>21.408084</v>
+        <v>21.408083999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1170.950000</v>
+        <v>1170.95</v>
       </c>
       <c r="I8" s="1">
-        <v>-215.902000</v>
+        <v>-215.90199999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>77079.625042</v>
       </c>
       <c r="L8" s="1">
-        <v>21.411007</v>
+        <v>21.411007000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1199.880000</v>
+        <v>1199.8800000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.183000</v>
+        <v>-151.18299999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>77090.127008</v>
+        <v>77090.127007999996</v>
       </c>
       <c r="Q8" s="1">
-        <v>21.413924</v>
+        <v>21.413924000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>1208.330000</v>
+        <v>1208.33</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.447000</v>
+        <v>-129.447</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>77100.267046</v>
+        <v>77100.267045999994</v>
       </c>
       <c r="V8" s="1">
-        <v>21.416741</v>
+        <v>21.416740999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>1216.110000</v>
+        <v>1216.1099999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.647000</v>
+        <v>-108.64700000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>77110.745529</v>
+        <v>77110.745529000007</v>
       </c>
       <c r="AA8" s="1">
-        <v>21.419652</v>
+        <v>21.419651999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1224.180000</v>
+        <v>1224.18</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.700300</v>
+        <v>-91.700299999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>77121.288528</v>
+        <v>77121.288528000005</v>
       </c>
       <c r="AF8" s="1">
-        <v>21.422580</v>
+        <v>21.42258</v>
       </c>
       <c r="AG8" s="1">
-        <v>1229.130000</v>
+        <v>1229.1300000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-87.111700</v>
+        <v>-87.111699999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>77131.788796</v>
+        <v>77131.788795999993</v>
       </c>
       <c r="AK8" s="1">
         <v>21.425497</v>
       </c>
       <c r="AL8" s="1">
-        <v>1236.530000</v>
+        <v>1236.53</v>
       </c>
       <c r="AM8" s="1">
-        <v>-90.278300</v>
+        <v>-90.278300000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>77142.128896</v>
+        <v>77142.128895999995</v>
       </c>
       <c r="AP8" s="1">
         <v>21.428369</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1244.670000</v>
+        <v>1244.67</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.096000</v>
+        <v>-102.096</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>77153.106847</v>
+        <v>77153.106847000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>21.431419</v>
+        <v>21.431419000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1254.810000</v>
+        <v>1254.81</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.334000</v>
+        <v>-121.334</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>77163.486136</v>
+        <v>77163.486136000007</v>
       </c>
       <c r="AZ8" s="1">
-        <v>21.434302</v>
+        <v>21.434301999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1263.410000</v>
+        <v>1263.4100000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.746000</v>
+        <v>-138.74600000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>77174.108985</v>
+        <v>77174.108984999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>21.437252</v>
+        <v>21.437252000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1304.010000</v>
+        <v>1304.01</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.237000</v>
+        <v>-220.23699999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>77184.827525</v>
+        <v>77184.827525000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>21.440230</v>
+        <v>21.44023</v>
       </c>
       <c r="BK8" s="1">
-        <v>1374.200000</v>
+        <v>1374.2</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.718000</v>
+        <v>-355.71800000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>77195.683928</v>
+        <v>77195.683927999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>21.443246</v>
+        <v>21.443245999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1489.160000</v>
+        <v>1489.16</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-575.810000</v>
+        <v>-575.80999999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>77206.812665</v>
+        <v>77206.812665000005</v>
       </c>
       <c r="BT8" s="1">
         <v>21.446337</v>
       </c>
       <c r="BU8" s="1">
-        <v>1621.570000</v>
+        <v>1621.57</v>
       </c>
       <c r="BV8" s="1">
-        <v>-823.282000</v>
+        <v>-823.28200000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>77217.194427</v>
+        <v>77217.194426999995</v>
       </c>
       <c r="BY8" s="1">
-        <v>21.449221</v>
+        <v>21.449221000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1774.480000</v>
+        <v>1774.48</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1092.130000</v>
+        <v>-1092.1300000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>77228.645068</v>
+        <v>77228.645067999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>21.452401</v>
+        <v>21.452400999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>2192.780000</v>
+        <v>2192.7800000000002</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1739.340000</v>
+        <v>-1739.34</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>77059.077772</v>
+        <v>77059.077772000004</v>
       </c>
       <c r="B9" s="1">
-        <v>21.405299</v>
+        <v>21.405298999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1149.410000</v>
+        <v>1149.4100000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-255.603000</v>
+        <v>-255.60300000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>77069.528813</v>
+        <v>77069.528812999997</v>
       </c>
       <c r="G9" s="1">
-        <v>21.408202</v>
+        <v>21.408201999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1171.540000</v>
+        <v>1171.54</v>
       </c>
       <c r="I9" s="1">
-        <v>-215.651000</v>
+        <v>-215.65100000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>77079.893873</v>
+        <v>77079.893872999994</v>
       </c>
       <c r="L9" s="1">
         <v>21.411082</v>
       </c>
       <c r="M9" s="1">
-        <v>1199.880000</v>
+        <v>1199.8800000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.331000</v>
+        <v>-151.33099999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>77090.398675</v>
+        <v>77090.398675000004</v>
       </c>
       <c r="Q9" s="1">
-        <v>21.414000</v>
+        <v>21.414000000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1208.320000</v>
+        <v>1208.32</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.471000</v>
+        <v>-129.471</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>77100.609792</v>
+        <v>77100.609792000003</v>
       </c>
       <c r="V9" s="1">
         <v>21.416836</v>
       </c>
       <c r="W9" s="1">
-        <v>1216.140000</v>
+        <v>1216.1400000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.674000</v>
+        <v>-108.67400000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>77111.096236</v>
+        <v>77111.096235999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>21.419749</v>
+        <v>21.419748999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1224.260000</v>
+        <v>1224.26</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.727700</v>
+        <v>-91.727699999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>77121.633210</v>
+        <v>77121.63321</v>
       </c>
       <c r="AF9" s="1">
-        <v>21.422676</v>
+        <v>21.422675999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1229.160000</v>
+        <v>1229.1600000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-87.084500</v>
+        <v>-87.084500000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>77132.484684</v>
+        <v>77132.484683999995</v>
       </c>
       <c r="AK9" s="1">
-        <v>21.425690</v>
+        <v>21.425689999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1236.550000</v>
+        <v>1236.55</v>
       </c>
       <c r="AM9" s="1">
-        <v>-90.271900</v>
+        <v>-90.271900000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>77142.849117</v>
+        <v>77142.849117000005</v>
       </c>
       <c r="AP9" s="1">
         <v>21.428569</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1244.640000</v>
+        <v>1244.6400000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.073000</v>
+        <v>-102.07299999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>77153.498192</v>
+        <v>77153.498191999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>21.431527</v>
+        <v>21.431526999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1254.820000</v>
+        <v>1254.82</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.293000</v>
+        <v>-121.29300000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>77163.844737</v>
+        <v>77163.844737000007</v>
       </c>
       <c r="AZ9" s="1">
-        <v>21.434401</v>
+        <v>21.434401000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1263.400000</v>
+        <v>1263.4000000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.736000</v>
+        <v>-138.73599999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>77174.471027</v>
+        <v>77174.471027000007</v>
       </c>
       <c r="BE9" s="1">
-        <v>21.437353</v>
+        <v>21.437353000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1304.010000</v>
+        <v>1304.01</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.271000</v>
+        <v>-220.27099999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>77185.522918</v>
+        <v>77185.522918000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>21.440423</v>
+        <v>21.440422999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1374.130000</v>
+        <v>1374.13</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.684000</v>
+        <v>-355.68400000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>77196.382295</v>
+        <v>77196.382295000003</v>
       </c>
       <c r="BO9" s="1">
-        <v>21.443440</v>
+        <v>21.443439999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1489.110000</v>
+        <v>1489.11</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-575.871000</v>
+        <v>-575.87099999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>77206.940136</v>
+        <v>77206.940136000005</v>
       </c>
       <c r="BT9" s="1">
         <v>21.446372</v>
       </c>
       <c r="BU9" s="1">
-        <v>1621.470000</v>
+        <v>1621.47</v>
       </c>
       <c r="BV9" s="1">
-        <v>-823.232000</v>
+        <v>-823.23199999999997</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>77217.623466</v>
+        <v>77217.623466000005</v>
       </c>
       <c r="BY9" s="1">
-        <v>21.449340</v>
+        <v>21.449339999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1774.570000</v>
+        <v>1774.57</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1092.050000</v>
+        <v>-1092.05</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>77229.163389</v>
+        <v>77229.163388999994</v>
       </c>
       <c r="CD9" s="1">
-        <v>21.452545</v>
+        <v>21.452545000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2190.550000</v>
+        <v>2190.5500000000002</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1739.420000</v>
+        <v>-1739.42</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>77059.513755</v>
+        <v>77059.513755000007</v>
       </c>
       <c r="B10" s="1">
-        <v>21.405420</v>
+        <v>21.405419999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1149.630000</v>
+        <v>1149.6300000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-255.500000</v>
+        <v>-255.5</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>77069.801279</v>
+        <v>77069.801279000007</v>
       </c>
       <c r="G10" s="1">
-        <v>21.408278</v>
+        <v>21.408277999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1170.630000</v>
+        <v>1170.6300000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-215.378000</v>
+        <v>-215.37799999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>77080.240576</v>
+        <v>77080.240575999997</v>
       </c>
       <c r="L10" s="1">
         <v>21.411178</v>
       </c>
       <c r="M10" s="1">
-        <v>1199.800000</v>
+        <v>1199.8</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.257000</v>
+        <v>-151.25700000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>77090.750319</v>
+        <v>77090.750318999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>21.414097</v>
+        <v>21.414097000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>1208.290000</v>
+        <v>1208.29</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.481000</v>
+        <v>-129.48099999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>77100.954501</v>
       </c>
       <c r="V10" s="1">
-        <v>21.416932</v>
+        <v>21.416931999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1216.260000</v>
+        <v>1216.26</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.807000</v>
+        <v>-108.807</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>77111.445383</v>
+        <v>77111.445382999998</v>
       </c>
       <c r="AA10" s="1">
         <v>21.419846</v>
       </c>
       <c r="AB10" s="1">
-        <v>1224.300000</v>
+        <v>1224.3</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.686200</v>
+        <v>-91.686199999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>77122.321160</v>
+        <v>77122.321160000007</v>
       </c>
       <c r="AF10" s="1">
         <v>21.422867</v>
       </c>
       <c r="AG10" s="1">
-        <v>1229.110000</v>
+        <v>1229.1099999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-87.076200</v>
+        <v>-87.0762</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>77132.834890</v>
+        <v>77132.834889999998</v>
       </c>
       <c r="AK10" s="1">
         <v>21.425787</v>
       </c>
       <c r="AL10" s="1">
-        <v>1236.550000</v>
+        <v>1236.55</v>
       </c>
       <c r="AM10" s="1">
-        <v>-90.269100</v>
+        <v>-90.269099999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>77143.209181</v>
+        <v>77143.209180999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>21.428669</v>
+        <v>21.428668999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1244.680000</v>
+        <v>1244.68</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.061000</v>
+        <v>-102.06100000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>77153.863251</v>
+        <v>77153.863251000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>21.431629</v>
+        <v>21.431629000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1254.830000</v>
+        <v>1254.83</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.347000</v>
+        <v>-121.34699999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>77164.520786</v>
+        <v>77164.520785999994</v>
       </c>
       <c r="AZ10" s="1">
-        <v>21.434589</v>
+        <v>21.434588999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1263.390000</v>
+        <v>1263.3900000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.752000</v>
+        <v>-138.75200000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>77175.147602</v>
+        <v>77175.147601999997</v>
       </c>
       <c r="BE10" s="1">
         <v>21.437541</v>
       </c>
       <c r="BF10" s="1">
-        <v>1304.000000</v>
+        <v>1304</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.282000</v>
+        <v>-220.28200000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>77185.954404</v>
+        <v>77185.954404000004</v>
       </c>
       <c r="BJ10" s="1">
-        <v>21.440543</v>
+        <v>21.440543000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1374.180000</v>
+        <v>1374.18</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.695000</v>
+        <v>-355.69499999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>77196.882764</v>
+        <v>77196.882763999994</v>
       </c>
       <c r="BO10" s="1">
         <v>21.443579</v>
       </c>
       <c r="BP10" s="1">
-        <v>1489.150000</v>
+        <v>1489.15</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-575.845000</v>
+        <v>-575.84500000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>77207.351353</v>
+        <v>77207.351353000005</v>
       </c>
       <c r="BT10" s="1">
         <v>21.446486</v>
       </c>
       <c r="BU10" s="1">
-        <v>1621.510000</v>
+        <v>1621.51</v>
       </c>
       <c r="BV10" s="1">
-        <v>-823.240000</v>
+        <v>-823.24</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>77218.037130</v>
+        <v>77218.037129999997</v>
       </c>
       <c r="BY10" s="1">
         <v>21.449455</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1774.390000</v>
+        <v>1774.39</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1092.130000</v>
+        <v>-1092.1300000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>77229.679723</v>
+        <v>77229.679722999994</v>
       </c>
       <c r="CD10" s="1">
-        <v>21.452689</v>
+        <v>21.452688999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2190.850000</v>
+        <v>2190.85</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1739.060000</v>
+        <v>-1739.06</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>77059.779620</v>
+        <v>77059.779620000001</v>
       </c>
       <c r="B11" s="1">
-        <v>21.405494</v>
+        <v>21.405494000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1149.290000</v>
+        <v>1149.29</v>
       </c>
       <c r="D11" s="1">
-        <v>-255.491000</v>
+        <v>-255.49100000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>77070.144509</v>
+        <v>77070.144509000005</v>
       </c>
       <c r="G11" s="1">
-        <v>21.408373</v>
+        <v>21.408373000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1170.850000</v>
+        <v>1170.8499999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-215.382000</v>
+        <v>-215.38200000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>77080.585792</v>
+        <v>77080.585791999998</v>
       </c>
       <c r="L11" s="1">
-        <v>21.411274</v>
+        <v>21.411273999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1200.030000</v>
+        <v>1200.03</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.359000</v>
+        <v>-151.35900000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>77091.098535</v>
+        <v>77091.098534999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>21.414194</v>
+        <v>21.414193999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>1208.290000</v>
+        <v>1208.29</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.427000</v>
+        <v>-129.42699999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>77101.641497</v>
+        <v>77101.641497000004</v>
       </c>
       <c r="V11" s="1">
         <v>21.417123</v>
       </c>
       <c r="W11" s="1">
-        <v>1216.300000</v>
+        <v>1216.3</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.873000</v>
+        <v>-108.873</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>77112.283622</v>
+        <v>77112.283622000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>21.420079</v>
+        <v>21.420079000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1224.230000</v>
+        <v>1224.23</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.644500</v>
+        <v>-91.644499999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>77122.663401</v>
+        <v>77122.663400999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>21.422962</v>
+        <v>21.422961999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>1229.150000</v>
+        <v>1229.1500000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-87.068600</v>
+        <v>-87.068600000000004</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>77133.180570</v>
+        <v>77133.180569999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>21.425883</v>
+        <v>21.425882999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1236.550000</v>
+        <v>1236.55</v>
       </c>
       <c r="AM11" s="1">
-        <v>-90.263200</v>
+        <v>-90.263199999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>77143.568284</v>
+        <v>77143.568283999994</v>
       </c>
       <c r="AP11" s="1">
-        <v>21.428769</v>
+        <v>21.428768999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1244.660000</v>
+        <v>1244.6600000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.079000</v>
+        <v>-102.07899999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>77154.538830</v>
+        <v>77154.538830000005</v>
       </c>
       <c r="AU11" s="1">
-        <v>21.431816</v>
+        <v>21.431816000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1254.800000</v>
+        <v>1254.8</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.349000</v>
+        <v>-121.349</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>77164.920568</v>
+        <v>77164.920568000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>21.434700</v>
+        <v>21.434699999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1263.390000</v>
+        <v>1263.3900000000001</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.731000</v>
+        <v>-138.73099999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>77175.583058</v>
+        <v>77175.583058000004</v>
       </c>
       <c r="BE11" s="1">
         <v>21.437662</v>
       </c>
       <c r="BF11" s="1">
-        <v>1303.990000</v>
+        <v>1303.99</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.278000</v>
+        <v>-220.27799999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>77186.331364</v>
+        <v>77186.331363999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>21.440648</v>
+        <v>21.440647999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1374.170000</v>
+        <v>1374.17</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.717000</v>
+        <v>-355.71699999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>77197.281081</v>
+        <v>77197.281080999994</v>
       </c>
       <c r="BO11" s="1">
-        <v>21.443689</v>
+        <v>21.443688999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1489.140000</v>
+        <v>1489.14</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-575.834000</v>
+        <v>-575.83399999999995</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>77207.781352</v>
+        <v>77207.781352000005</v>
       </c>
       <c r="BT11" s="1">
-        <v>21.446606</v>
+        <v>21.446605999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1621.480000</v>
+        <v>1621.48</v>
       </c>
       <c r="BV11" s="1">
-        <v>-823.303000</v>
+        <v>-823.303</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>77218.481547</v>
+        <v>77218.481547000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>21.449578</v>
+        <v>21.449577999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1774.360000</v>
+        <v>1774.36</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1092.110000</v>
+        <v>-1092.1099999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>77230.232762</v>
@@ -3034,90 +3450,90 @@
         <v>21.452842</v>
       </c>
       <c r="CE11" s="1">
-        <v>2192.300000</v>
+        <v>2192.3000000000002</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1738.930000</v>
+        <v>-1738.93</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>77060.121395</v>
+        <v>77060.121394999995</v>
       </c>
       <c r="B12" s="1">
-        <v>21.405589</v>
+        <v>21.405588999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1149.200000</v>
+        <v>1149.2</v>
       </c>
       <c r="D12" s="1">
-        <v>-255.511000</v>
+        <v>-255.511</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>77070.487742</v>
+        <v>77070.487741999998</v>
       </c>
       <c r="G12" s="1">
         <v>21.408469</v>
       </c>
       <c r="H12" s="1">
-        <v>1170.970000</v>
+        <v>1170.97</v>
       </c>
       <c r="I12" s="1">
-        <v>-215.957000</v>
+        <v>-215.95699999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>77081.279199</v>
+        <v>77081.279198999997</v>
       </c>
       <c r="L12" s="1">
-        <v>21.411466</v>
+        <v>21.411466000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1200.130000</v>
+        <v>1200.1300000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.194000</v>
+        <v>-151.19399999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>77091.795873</v>
+        <v>77091.795872999995</v>
       </c>
       <c r="Q12" s="1">
-        <v>21.414388</v>
+        <v>21.414387999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1208.330000</v>
+        <v>1208.33</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.424000</v>
+        <v>-129.42400000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>77101.985683</v>
+        <v>77101.985683000006</v>
       </c>
       <c r="V12" s="1">
-        <v>21.417218</v>
+        <v>21.417217999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>1216.030000</v>
+        <v>1216.03</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.712000</v>
+        <v>-108.712</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>77112.491941</v>
@@ -3126,1116 +3542,1116 @@
         <v>21.420137</v>
       </c>
       <c r="AB12" s="1">
-        <v>1224.240000</v>
+        <v>1224.24</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.635200</v>
+        <v>-91.635199999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>77123.007278</v>
+        <v>77123.007278000005</v>
       </c>
       <c r="AF12" s="1">
-        <v>21.423058</v>
+        <v>21.423058000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1229.160000</v>
+        <v>1229.1600000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-87.086500</v>
+        <v>-87.086500000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>77133.843226</v>
+        <v>77133.843225999997</v>
       </c>
       <c r="AK12" s="1">
-        <v>21.426068</v>
+        <v>21.426068000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1236.490000</v>
+        <v>1236.49</v>
       </c>
       <c r="AM12" s="1">
-        <v>-90.259500</v>
+        <v>-90.259500000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>77144.241355</v>
+        <v>77144.241355000006</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.428956</v>
+        <v>21.428955999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1244.670000</v>
+        <v>1244.67</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.082000</v>
+        <v>-102.08199999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>77154.991645</v>
+        <v>77154.991645000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>21.431942</v>
+        <v>21.431941999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1254.820000</v>
+        <v>1254.82</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.313000</v>
+        <v>-121.313</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>77165.304464</v>
+        <v>77165.304464000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>21.434807</v>
+        <v>21.434806999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1263.400000</v>
+        <v>1263.4000000000001</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.740000</v>
+        <v>-138.74</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>77175.942162</v>
+        <v>77175.942162000007</v>
       </c>
       <c r="BE12" s="1">
-        <v>21.437762</v>
+        <v>21.437761999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1303.990000</v>
+        <v>1303.99</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.263000</v>
+        <v>-220.26300000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>77186.706340</v>
+        <v>77186.706340000004</v>
       </c>
       <c r="BJ12" s="1">
         <v>21.440752</v>
       </c>
       <c r="BK12" s="1">
-        <v>1374.160000</v>
+        <v>1374.16</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.711000</v>
+        <v>-355.71100000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>77197.710580</v>
+        <v>77197.710579999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>21.443808</v>
+        <v>21.443808000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1489.130000</v>
+        <v>1489.13</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-575.827000</v>
+        <v>-575.827</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>77208.204440</v>
+        <v>77208.204440000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>21.446723</v>
+        <v>21.446722999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1621.460000</v>
+        <v>1621.46</v>
       </c>
       <c r="BV12" s="1">
-        <v>-823.277000</v>
+        <v>-823.27700000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>77218.894745</v>
+        <v>77218.894744999998</v>
       </c>
       <c r="BY12" s="1">
         <v>21.449693</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1774.460000</v>
+        <v>1774.46</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1092.080000</v>
+        <v>-1092.08</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>77230.763481</v>
+        <v>77230.763481000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>21.452990</v>
+        <v>21.45299</v>
       </c>
       <c r="CE12" s="1">
-        <v>2190.410000</v>
+        <v>2190.41</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1739.990000</v>
+        <v>-1739.99</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>77060.461154</v>
+        <v>77060.461154000004</v>
       </c>
       <c r="B13" s="1">
-        <v>21.405684</v>
+        <v>21.405684000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1149.470000</v>
+        <v>1149.47</v>
       </c>
       <c r="D13" s="1">
-        <v>-255.583000</v>
+        <v>-255.583</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>77071.185612</v>
+        <v>77071.185612000001</v>
       </c>
       <c r="G13" s="1">
-        <v>21.408663</v>
+        <v>21.408663000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1170.280000</v>
+        <v>1170.28</v>
       </c>
       <c r="I13" s="1">
-        <v>-215.732000</v>
+        <v>-215.732</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>77081.624451</v>
+        <v>77081.624450999996</v>
       </c>
       <c r="L13" s="1">
         <v>21.411562</v>
       </c>
       <c r="M13" s="1">
-        <v>1200.250000</v>
+        <v>1200.25</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.195000</v>
+        <v>-151.19499999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>77092.145056</v>
+        <v>77092.145055999994</v>
       </c>
       <c r="Q13" s="1">
-        <v>21.414485</v>
+        <v>21.414484999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1208.400000</v>
+        <v>1208.4000000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.496000</v>
+        <v>-129.49600000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>77102.329443</v>
+        <v>77102.329442999995</v>
       </c>
       <c r="V13" s="1">
-        <v>21.417314</v>
+        <v>21.417314000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1216.180000</v>
+        <v>1216.18</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.658000</v>
+        <v>-108.658</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>77113.164021</v>
+        <v>77113.164021000004</v>
       </c>
       <c r="AA13" s="1">
         <v>21.420323</v>
       </c>
       <c r="AB13" s="1">
-        <v>1224.250000</v>
+        <v>1224.25</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.640500</v>
+        <v>-91.640500000000003</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>77123.652951</v>
+        <v>77123.652950999996</v>
       </c>
       <c r="AF13" s="1">
         <v>21.423237</v>
       </c>
       <c r="AG13" s="1">
-        <v>1229.160000</v>
+        <v>1229.1600000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-87.099300</v>
+        <v>-87.099299999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>77134.227624</v>
+        <v>77134.227624000006</v>
       </c>
       <c r="AK13" s="1">
         <v>21.426174</v>
       </c>
       <c r="AL13" s="1">
-        <v>1236.530000</v>
+        <v>1236.53</v>
       </c>
       <c r="AM13" s="1">
-        <v>-90.265500</v>
+        <v>-90.265500000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>77144.684779</v>
+        <v>77144.684779000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>21.429079</v>
+        <v>21.429079000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1244.660000</v>
+        <v>1244.6600000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.105000</v>
+        <v>-102.105</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>77155.358685</v>
+        <v>77155.358684999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>21.432044</v>
+        <v>21.432044000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1254.830000</v>
+        <v>1254.83</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.336000</v>
+        <v>-121.336</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>77165.664063</v>
+        <v>77165.664063000004</v>
       </c>
       <c r="AZ13" s="1">
-        <v>21.434907</v>
+        <v>21.434906999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1263.400000</v>
+        <v>1263.4000000000001</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.743000</v>
+        <v>-138.74299999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>77176.303249</v>
+        <v>77176.303249000004</v>
       </c>
       <c r="BE13" s="1">
-        <v>21.437862</v>
+        <v>21.437861999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1304.010000</v>
+        <v>1304.01</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.254000</v>
+        <v>-220.25399999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>77187.132435</v>
+        <v>77187.132435000007</v>
       </c>
       <c r="BJ13" s="1">
-        <v>21.440870</v>
+        <v>21.44087</v>
       </c>
       <c r="BK13" s="1">
-        <v>1374.160000</v>
+        <v>1374.16</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.698000</v>
+        <v>-355.69799999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>77198.094981</v>
+        <v>77198.094981000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>21.443915</v>
+        <v>21.443915000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1489.090000</v>
+        <v>1489.09</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-575.818000</v>
+        <v>-575.81799999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>77208.613639</v>
+        <v>77208.613639000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>21.446837</v>
+        <v>21.446836999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1621.460000</v>
+        <v>1621.46</v>
       </c>
       <c r="BV13" s="1">
-        <v>-823.365000</v>
+        <v>-823.36500000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>77219.313336</v>
+        <v>77219.313336000007</v>
       </c>
       <c r="BY13" s="1">
-        <v>21.449809</v>
+        <v>21.449808999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1774.610000</v>
+        <v>1774.61</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1092.140000</v>
+        <v>-1092.1400000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>77231.279352</v>
+        <v>77231.279351999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>21.453133</v>
+        <v>21.453133000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>2190.730000</v>
+        <v>2190.73</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1738.890000</v>
+        <v>-1738.89</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>77061.148073</v>
+        <v>77061.148073000004</v>
       </c>
       <c r="B14" s="1">
-        <v>21.405874</v>
+        <v>21.405874000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1149.300000</v>
+        <v>1149.3</v>
       </c>
       <c r="D14" s="1">
-        <v>-255.486000</v>
+        <v>-255.48599999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>77071.535293</v>
+        <v>77071.535292999994</v>
       </c>
       <c r="G14" s="1">
-        <v>21.408760</v>
+        <v>21.408760000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1171.360000</v>
+        <v>1171.3599999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-215.392000</v>
+        <v>-215.392</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>77081.970140</v>
+        <v>77081.970140000005</v>
       </c>
       <c r="L14" s="1">
-        <v>21.411658</v>
+        <v>21.411657999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1199.850000</v>
+        <v>1199.8499999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.226000</v>
+        <v>-151.226</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>77092.491264</v>
+        <v>77092.491263999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>21.414581</v>
+        <v>21.414580999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>1208.350000</v>
+        <v>1208.3499999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.446000</v>
+        <v>-129.446</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>77103.000001</v>
+        <v>77103.000000999993</v>
       </c>
       <c r="V14" s="1">
-        <v>21.417500</v>
+        <v>21.4175</v>
       </c>
       <c r="W14" s="1">
-        <v>1216.180000</v>
+        <v>1216.18</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.969000</v>
+        <v>-108.96899999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>77113.543460</v>
+        <v>77113.543460000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>21.420429</v>
+        <v>21.420428999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1224.320000</v>
+        <v>1224.32</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.647900</v>
+        <v>-91.647900000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>77124.039798</v>
+        <v>77124.039797999998</v>
       </c>
       <c r="AF14" s="1">
         <v>21.423344</v>
       </c>
       <c r="AG14" s="1">
-        <v>1229.140000</v>
+        <v>1229.1400000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-87.074500</v>
+        <v>-87.0745</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>77134.578296</v>
+        <v>77134.578296000007</v>
       </c>
       <c r="AK14" s="1">
-        <v>21.426272</v>
+        <v>21.426272000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1236.530000</v>
+        <v>1236.53</v>
       </c>
       <c r="AM14" s="1">
-        <v>-90.267200</v>
+        <v>-90.267200000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>77145.044874</v>
+        <v>77145.044873999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>21.429179</v>
+        <v>21.429179000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1244.660000</v>
+        <v>1244.6600000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.083000</v>
+        <v>-102.083</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>77155.723276</v>
+        <v>77155.723276000004</v>
       </c>
       <c r="AU14" s="1">
-        <v>21.432145</v>
+        <v>21.432144999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>1254.820000</v>
+        <v>1254.82</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.301000</v>
+        <v>-121.301</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>77166.091616</v>
+        <v>77166.091616000005</v>
       </c>
       <c r="AZ14" s="1">
         <v>21.435025</v>
       </c>
       <c r="BA14" s="1">
-        <v>1263.380000</v>
+        <v>1263.3800000000001</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.729000</v>
+        <v>-138.72900000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>77176.731792</v>
+        <v>77176.731792000006</v>
       </c>
       <c r="BE14" s="1">
-        <v>21.437981</v>
+        <v>21.437981000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1304.010000</v>
+        <v>1304.01</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.258000</v>
+        <v>-220.25800000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>77187.476133</v>
+        <v>77187.476133000004</v>
       </c>
       <c r="BJ14" s="1">
         <v>21.440966</v>
       </c>
       <c r="BK14" s="1">
-        <v>1374.190000</v>
+        <v>1374.19</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.724000</v>
+        <v>-355.72399999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>77198.518068</v>
+        <v>77198.518068000005</v>
       </c>
       <c r="BO14" s="1">
-        <v>21.444033</v>
+        <v>21.444033000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1489.110000</v>
+        <v>1489.11</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-575.835000</v>
+        <v>-575.83500000000004</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>77209.028790</v>
+        <v>77209.028789999997</v>
       </c>
       <c r="BT14" s="1">
         <v>21.446952</v>
       </c>
       <c r="BU14" s="1">
-        <v>1621.410000</v>
+        <v>1621.41</v>
       </c>
       <c r="BV14" s="1">
-        <v>-823.346000</v>
+        <v>-823.346</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>77219.758255</v>
+        <v>77219.758254999993</v>
       </c>
       <c r="BY14" s="1">
-        <v>21.449933</v>
+        <v>21.449933000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1774.420000</v>
+        <v>1774.42</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1092.110000</v>
+        <v>-1092.1099999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>77231.834839</v>
+        <v>77231.834839000003</v>
       </c>
       <c r="CD14" s="1">
         <v>21.453287</v>
       </c>
       <c r="CE14" s="1">
-        <v>2191.930000</v>
+        <v>2191.9299999999998</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1738.810000</v>
+        <v>-1738.81</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>77061.488825</v>
+        <v>77061.488824999993</v>
       </c>
       <c r="B15" s="1">
-        <v>21.405969</v>
+        <v>21.405968999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1149.330000</v>
+        <v>1149.33</v>
       </c>
       <c r="D15" s="1">
-        <v>-255.306000</v>
+        <v>-255.30600000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>77071.879549</v>
+        <v>77071.879549000005</v>
       </c>
       <c r="G15" s="1">
-        <v>21.408855</v>
+        <v>21.408854999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1171.420000</v>
+        <v>1171.42</v>
       </c>
       <c r="I15" s="1">
-        <v>-216.057000</v>
+        <v>-216.05699999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>77082.629309</v>
+        <v>77082.629308999996</v>
       </c>
       <c r="L15" s="1">
-        <v>21.411841</v>
+        <v>21.411840999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1200.000000</v>
+        <v>1200</v>
       </c>
       <c r="N15" s="1">
-        <v>-151.265000</v>
+        <v>-151.26499999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>77093.156927</v>
+        <v>77093.156927000004</v>
       </c>
       <c r="Q15" s="1">
         <v>21.414766</v>
       </c>
       <c r="R15" s="1">
-        <v>1208.310000</v>
+        <v>1208.31</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.480000</v>
+        <v>-129.47999999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>77103.365057</v>
+        <v>77103.365057000003</v>
       </c>
       <c r="V15" s="1">
-        <v>21.417601</v>
+        <v>21.417601000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1216.190000</v>
+        <v>1216.19</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.853000</v>
+        <v>-108.85299999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>77113.891438</v>
+        <v>77113.891438000006</v>
       </c>
       <c r="AA15" s="1">
-        <v>21.420525</v>
+        <v>21.420525000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1224.280000</v>
+        <v>1224.28</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.759100</v>
+        <v>-91.759100000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>77124.379558</v>
+        <v>77124.379558000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>21.423439</v>
+        <v>21.423438999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1229.200000</v>
+        <v>1229.2</v>
       </c>
       <c r="AH15" s="1">
-        <v>-87.071200</v>
+        <v>-87.071200000000005</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>77134.927480</v>
+        <v>77134.927479999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>21.426369</v>
+        <v>21.426369000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1236.530000</v>
+        <v>1236.53</v>
       </c>
       <c r="AM15" s="1">
-        <v>-90.267600</v>
+        <v>-90.267600000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>77145.405480</v>
+        <v>77145.405480000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>21.429279</v>
+        <v>21.429279000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1244.660000</v>
+        <v>1244.6600000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.106000</v>
+        <v>-102.10599999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>77156.142364</v>
+        <v>77156.142363999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>21.432262</v>
+        <v>21.432262000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1254.790000</v>
+        <v>1254.79</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.322000</v>
+        <v>-121.322</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>77166.380783</v>
+        <v>77166.380783000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>21.435106</v>
+        <v>21.435106000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1263.390000</v>
+        <v>1263.3900000000001</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.750000</v>
+        <v>-138.75</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>77177.028400</v>
+        <v>77177.028399999996</v>
       </c>
       <c r="BE15" s="1">
         <v>21.438063</v>
       </c>
       <c r="BF15" s="1">
-        <v>1303.990000</v>
+        <v>1303.99</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.274000</v>
+        <v>-220.274</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>77187.850114</v>
+        <v>77187.850114000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>21.441069</v>
+        <v>21.441068999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1374.160000</v>
+        <v>1374.16</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.690000</v>
+        <v>-355.69</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>77198.913875</v>
+        <v>77198.913874999998</v>
       </c>
       <c r="BO15" s="1">
         <v>21.444143</v>
       </c>
       <c r="BP15" s="1">
-        <v>1489.130000</v>
+        <v>1489.13</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-575.801000</v>
+        <v>-575.80100000000004</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>77209.466782</v>
+        <v>77209.466782000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>21.447074</v>
+        <v>21.447074000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1621.350000</v>
+        <v>1621.35</v>
       </c>
       <c r="BV15" s="1">
-        <v>-823.390000</v>
+        <v>-823.39</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>77220.188279</v>
+        <v>77220.188278999995</v>
       </c>
       <c r="BY15" s="1">
-        <v>21.450052</v>
+        <v>21.450051999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1774.490000</v>
+        <v>1774.49</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1092.170000</v>
+        <v>-1092.17</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>77232.364210</v>
+        <v>77232.36421</v>
       </c>
       <c r="CD15" s="1">
-        <v>21.453435</v>
+        <v>21.453434999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2190.330000</v>
+        <v>2190.33</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1740.290000</v>
+        <v>-1740.29</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>77062.139114</v>
+        <v>77062.139114000005</v>
       </c>
       <c r="B16" s="1">
-        <v>21.406150</v>
+        <v>21.40615</v>
       </c>
       <c r="C16" s="1">
-        <v>1149.350000</v>
+        <v>1149.3499999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-255.321000</v>
+        <v>-255.321</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>77072.542212</v>
       </c>
       <c r="G16" s="1">
-        <v>21.409040</v>
+        <v>21.409040000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1171.700000</v>
+        <v>1171.7</v>
       </c>
       <c r="I16" s="1">
-        <v>-215.123000</v>
+        <v>-215.12299999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>77083.004284</v>
+        <v>77083.004283999995</v>
       </c>
       <c r="L16" s="1">
         <v>21.411946</v>
       </c>
       <c r="M16" s="1">
-        <v>1199.830000</v>
+        <v>1199.83</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.061000</v>
+        <v>-151.06100000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>77093.539311</v>
       </c>
       <c r="Q16" s="1">
-        <v>21.414872</v>
+        <v>21.414871999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1208.300000</v>
+        <v>1208.3</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.445000</v>
+        <v>-129.44499999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>77103.710274</v>
+        <v>77103.710273999997</v>
       </c>
       <c r="V16" s="1">
         <v>21.417697</v>
       </c>
       <c r="W16" s="1">
-        <v>1216.240000</v>
+        <v>1216.24</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.624000</v>
+        <v>-108.624</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>77114.241496</v>
+        <v>77114.241496000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>21.420623</v>
+        <v>21.420622999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1224.270000</v>
+        <v>1224.27</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.659500</v>
+        <v>-91.659499999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>77124.731718</v>
+        <v>77124.731717999995</v>
       </c>
       <c r="AF16" s="1">
         <v>21.423537</v>
       </c>
       <c r="AG16" s="1">
-        <v>1229.170000</v>
+        <v>1229.17</v>
       </c>
       <c r="AH16" s="1">
-        <v>-87.029800</v>
+        <v>-87.029799999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>77135.359495</v>
+        <v>77135.359494999997</v>
       </c>
       <c r="AK16" s="1">
         <v>21.426489</v>
       </c>
       <c r="AL16" s="1">
-        <v>1236.550000</v>
+        <v>1236.55</v>
       </c>
       <c r="AM16" s="1">
-        <v>-90.273400</v>
+        <v>-90.273399999999995</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>77145.892539</v>
+        <v>77145.892538999993</v>
       </c>
       <c r="AP16" s="1">
-        <v>21.429415</v>
+        <v>21.429414999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1244.660000</v>
+        <v>1244.6600000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.080000</v>
+        <v>-102.08</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>77156.449915</v>
+        <v>77156.449915000005</v>
       </c>
       <c r="AU16" s="1">
         <v>21.432347</v>
       </c>
       <c r="AV16" s="1">
-        <v>1254.800000</v>
+        <v>1254.8</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.326000</v>
+        <v>-121.32599999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>77166.741374</v>
+        <v>77166.741374000005</v>
       </c>
       <c r="AZ16" s="1">
-        <v>21.435206</v>
+        <v>21.435206000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1263.410000</v>
+        <v>1263.4100000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.743000</v>
+        <v>-138.74299999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>77177.388991</v>
@@ -4244,1782 +4660,1782 @@
         <v>21.438164</v>
       </c>
       <c r="BF16" s="1">
-        <v>1304.030000</v>
+        <v>1304.03</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.262000</v>
+        <v>-220.262</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>77188.226081</v>
+        <v>77188.226081000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>21.441174</v>
       </c>
       <c r="BK16" s="1">
-        <v>1374.160000</v>
+        <v>1374.16</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.715000</v>
+        <v>-355.71499999999997</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>77199.340466</v>
+        <v>77199.340465999994</v>
       </c>
       <c r="BO16" s="1">
-        <v>21.444261</v>
+        <v>21.444261000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1489.150000</v>
+        <v>1489.15</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-575.836000</v>
+        <v>-575.83600000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>77209.893317</v>
+        <v>77209.893316999995</v>
       </c>
       <c r="BT16" s="1">
-        <v>21.447193</v>
+        <v>21.447192999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1621.340000</v>
+        <v>1621.34</v>
       </c>
       <c r="BV16" s="1">
-        <v>-823.522000</v>
+        <v>-823.52200000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>77220.602440</v>
+        <v>77220.602440000002</v>
       </c>
       <c r="BY16" s="1">
         <v>21.450167</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1774.510000</v>
+        <v>1774.51</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1092.200000</v>
+        <v>-1092.2</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>77232.880904</v>
+        <v>77232.880904000005</v>
       </c>
       <c r="CD16" s="1">
         <v>21.453578</v>
       </c>
       <c r="CE16" s="1">
-        <v>2192.170000</v>
+        <v>2192.17</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1741.440000</v>
+        <v>-1741.44</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>77062.515047</v>
+        <v>77062.515046999994</v>
       </c>
       <c r="B17" s="1">
-        <v>21.406254</v>
+        <v>21.406254000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1149.260000</v>
+        <v>1149.26</v>
       </c>
       <c r="D17" s="1">
-        <v>-255.618000</v>
+        <v>-255.61799999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>77072.914170</v>
+        <v>77072.914170000004</v>
       </c>
       <c r="G17" s="1">
         <v>21.409143</v>
       </c>
       <c r="H17" s="1">
-        <v>1171.080000</v>
+        <v>1171.08</v>
       </c>
       <c r="I17" s="1">
-        <v>-215.987000</v>
+        <v>-215.98699999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>77083.350493</v>
+        <v>77083.350493000005</v>
       </c>
       <c r="L17" s="1">
         <v>21.412042</v>
       </c>
       <c r="M17" s="1">
-        <v>1199.980000</v>
+        <v>1199.98</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.246000</v>
+        <v>-151.24600000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>77093.888494</v>
+        <v>77093.888493999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>21.414969</v>
+        <v>21.414968999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1208.300000</v>
+        <v>1208.3</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.445000</v>
+        <v>-129.44499999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>77104.056480</v>
+        <v>77104.056479999999</v>
       </c>
       <c r="V17" s="1">
         <v>21.417793</v>
       </c>
       <c r="W17" s="1">
-        <v>1216.240000</v>
+        <v>1216.24</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.683000</v>
+        <v>-108.68300000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>77114.656515</v>
+        <v>77114.656514999995</v>
       </c>
       <c r="AA17" s="1">
         <v>21.420738</v>
       </c>
       <c r="AB17" s="1">
-        <v>1224.250000</v>
+        <v>1224.25</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.674200</v>
+        <v>-91.674199999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>77125.143396</v>
+        <v>77125.143395999999</v>
       </c>
       <c r="AF17" s="1">
         <v>21.423651</v>
       </c>
       <c r="AG17" s="1">
-        <v>1229.150000</v>
+        <v>1229.1500000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-87.098100</v>
+        <v>-87.098100000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>77135.634279</v>
+        <v>77135.634279000005</v>
       </c>
       <c r="AK17" s="1">
         <v>21.426565</v>
       </c>
       <c r="AL17" s="1">
-        <v>1236.530000</v>
+        <v>1236.53</v>
       </c>
       <c r="AM17" s="1">
-        <v>-90.259400</v>
+        <v>-90.259399999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>77146.123675</v>
+        <v>77146.123674999995</v>
       </c>
       <c r="AP17" s="1">
-        <v>21.429479</v>
+        <v>21.429479000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1244.670000</v>
+        <v>1244.67</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.089000</v>
+        <v>-102.089</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>77156.811963</v>
       </c>
       <c r="AU17" s="1">
-        <v>21.432448</v>
+        <v>21.432448000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1254.800000</v>
+        <v>1254.8</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.345000</v>
+        <v>-121.345</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>77167.100014</v>
+        <v>77167.100013999996</v>
       </c>
       <c r="AZ17" s="1">
-        <v>21.435306</v>
+        <v>21.435306000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1263.420000</v>
+        <v>1263.42</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.748000</v>
+        <v>-138.74799999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>77177.749616</v>
+        <v>77177.749616000001</v>
       </c>
       <c r="BE17" s="1">
         <v>21.438264</v>
       </c>
       <c r="BF17" s="1">
-        <v>1304.010000</v>
+        <v>1304.01</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.263000</v>
+        <v>-220.26300000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>77188.976032</v>
+        <v>77188.976032000006</v>
       </c>
       <c r="BJ17" s="1">
-        <v>21.441382</v>
+        <v>21.441382000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1374.160000</v>
+        <v>1374.16</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.699000</v>
+        <v>-355.69900000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>77199.734755</v>
+        <v>77199.734754999998</v>
       </c>
       <c r="BO17" s="1">
         <v>21.444371</v>
       </c>
       <c r="BP17" s="1">
-        <v>1489.160000</v>
+        <v>1489.16</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-575.872000</v>
+        <v>-575.87199999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>77210.305524</v>
+        <v>77210.305523999996</v>
       </c>
       <c r="BT17" s="1">
-        <v>21.447307</v>
+        <v>21.447306999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1621.260000</v>
+        <v>1621.26</v>
       </c>
       <c r="BV17" s="1">
-        <v>-823.495000</v>
+        <v>-823.495</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>77221.051350</v>
+        <v>77221.051349999994</v>
       </c>
       <c r="BY17" s="1">
-        <v>21.450292</v>
+        <v>21.450292000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1774.540000</v>
+        <v>1774.54</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1092.090000</v>
+        <v>-1092.0899999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>77233.714679</v>
+        <v>77233.714678999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>21.453810</v>
+        <v>21.453810000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2192.860000</v>
+        <v>2192.86</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1739.510000</v>
+        <v>-1739.51</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>77062.860759</v>
+        <v>77062.860759000003</v>
       </c>
       <c r="B18" s="1">
-        <v>21.406350</v>
+        <v>21.40635</v>
       </c>
       <c r="C18" s="1">
-        <v>1149.390000</v>
+        <v>1149.3900000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-255.540000</v>
+        <v>-255.54</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>77073.255450</v>
+        <v>77073.255449999997</v>
       </c>
       <c r="G18" s="1">
-        <v>21.409238</v>
+        <v>21.409237999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>1171.590000</v>
+        <v>1171.5899999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-215.586000</v>
+        <v>-215.58600000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>77083.695211</v>
+        <v>77083.695210999998</v>
       </c>
       <c r="L18" s="1">
-        <v>21.412138</v>
+        <v>21.412137999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1200.040000</v>
+        <v>1200.04</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.096000</v>
+        <v>-151.096</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>77094.242142</v>
+        <v>77094.242142000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>21.415067</v>
+        <v>21.415067000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1208.360000</v>
+        <v>1208.3599999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.446000</v>
+        <v>-129.446</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>77104.495936</v>
+        <v>77104.495936000007</v>
       </c>
       <c r="V18" s="1">
-        <v>21.417916</v>
+        <v>21.417916000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>1216.160000</v>
+        <v>1216.1600000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.737000</v>
+        <v>-108.73699999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>77114.949153</v>
+        <v>77114.949152999994</v>
       </c>
       <c r="AA18" s="1">
-        <v>21.420819</v>
+        <v>21.420819000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>1224.180000</v>
+        <v>1224.18</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.547900</v>
+        <v>-91.547899999999998</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>77125.434084</v>
+        <v>77125.434083999993</v>
       </c>
       <c r="AF18" s="1">
-        <v>21.423732</v>
+        <v>21.423732000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1229.170000</v>
+        <v>1229.17</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.984800</v>
+        <v>-86.984800000000007</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>77135.983959</v>
+        <v>77135.983959000005</v>
       </c>
       <c r="AK18" s="1">
         <v>21.426662</v>
       </c>
       <c r="AL18" s="1">
-        <v>1236.540000</v>
+        <v>1236.54</v>
       </c>
       <c r="AM18" s="1">
-        <v>-90.261900</v>
+        <v>-90.261899999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>77146.486746</v>
+        <v>77146.486745999995</v>
       </c>
       <c r="AP18" s="1">
-        <v>21.429580</v>
+        <v>21.429580000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1244.680000</v>
+        <v>1244.68</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.095000</v>
+        <v>-102.095</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>77157.177515</v>
+        <v>77157.177515000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>21.432549</v>
+        <v>21.432549000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>1254.830000</v>
+        <v>1254.83</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.332000</v>
+        <v>-121.33199999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>77167.820178</v>
+        <v>77167.820177999994</v>
       </c>
       <c r="AZ18" s="1">
         <v>21.435506</v>
       </c>
       <c r="BA18" s="1">
-        <v>1263.390000</v>
+        <v>1263.3900000000001</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.733000</v>
+        <v>-138.733</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>77178.473742</v>
+        <v>77178.473742000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>21.438465</v>
+        <v>21.438465000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1304.010000</v>
+        <v>1304.01</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.299000</v>
+        <v>-220.29900000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>77189.352496</v>
+        <v>77189.352496000007</v>
       </c>
       <c r="BJ18" s="1">
-        <v>21.441487</v>
+        <v>21.441486999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1374.120000</v>
+        <v>1374.12</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.733000</v>
+        <v>-355.733</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>77200.153873</v>
+        <v>77200.153873000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>21.444487</v>
+        <v>21.444486999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1489.120000</v>
+        <v>1489.12</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-575.857000</v>
+        <v>-575.85699999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>77210.740483</v>
+        <v>77210.740483000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>21.447428</v>
+        <v>21.447427999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1621.350000</v>
+        <v>1621.35</v>
       </c>
       <c r="BV18" s="1">
-        <v>-823.437000</v>
+        <v>-823.43700000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>77221.803255</v>
+        <v>77221.803255000006</v>
       </c>
       <c r="BY18" s="1">
-        <v>21.450501</v>
+        <v>21.450500999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1774.420000</v>
+        <v>1774.42</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1092.230000</v>
+        <v>-1092.23</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>77233.943333</v>
+        <v>77233.943333000003</v>
       </c>
       <c r="CD18" s="1">
-        <v>21.453873</v>
+        <v>21.453873000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>2190.440000</v>
+        <v>2190.44</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1740.340000</v>
+        <v>-1740.34</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>77063.203495</v>
+        <v>77063.203494999994</v>
       </c>
       <c r="B19" s="1">
-        <v>21.406445</v>
+        <v>21.406445000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1149.270000</v>
+        <v>1149.27</v>
       </c>
       <c r="D19" s="1">
-        <v>-255.448000</v>
+        <v>-255.44800000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>77073.601635</v>
+        <v>77073.601634999999</v>
       </c>
       <c r="G19" s="1">
-        <v>21.409334</v>
+        <v>21.409334000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1171.410000</v>
+        <v>1171.4100000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-215.249000</v>
+        <v>-215.249</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>77084.130699</v>
+        <v>77084.130699000001</v>
       </c>
       <c r="L19" s="1">
-        <v>21.412259</v>
+        <v>21.412258999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1200.190000</v>
+        <v>1200.19</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.249000</v>
+        <v>-151.249</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>77094.670188</v>
+        <v>77094.670188000004</v>
       </c>
       <c r="Q19" s="1">
-        <v>21.415186</v>
+        <v>21.415185999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1208.350000</v>
+        <v>1208.3499999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.464000</v>
+        <v>-129.464</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>77104.752875</v>
+        <v>77104.752875000006</v>
       </c>
       <c r="V19" s="1">
         <v>21.417987</v>
       </c>
       <c r="W19" s="1">
-        <v>1216.200000</v>
+        <v>1216.2</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.652000</v>
+        <v>-108.652</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>77115.297313</v>
+        <v>77115.297313000003</v>
       </c>
       <c r="AA19" s="1">
-        <v>21.420916</v>
+        <v>21.420915999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>1224.280000</v>
+        <v>1224.28</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.686900</v>
+        <v>-91.686899999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>77125.775802</v>
+        <v>77125.775802000004</v>
       </c>
       <c r="AF19" s="1">
-        <v>21.423827</v>
+        <v>21.423826999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1229.150000</v>
+        <v>1229.1500000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-87.011100</v>
+        <v>-87.011099999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>77136.332684</v>
+        <v>77136.332683999994</v>
       </c>
       <c r="AK19" s="1">
-        <v>21.426759</v>
+        <v>21.426759000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1236.520000</v>
+        <v>1236.52</v>
       </c>
       <c r="AM19" s="1">
-        <v>-90.249300</v>
+        <v>-90.249300000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>77147.205448</v>
+        <v>77147.205447999993</v>
       </c>
       <c r="AP19" s="1">
         <v>21.429779</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1244.640000</v>
+        <v>1244.6400000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.080000</v>
+        <v>-102.08</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>77157.907184</v>
+        <v>77157.907183999996</v>
       </c>
       <c r="AU19" s="1">
-        <v>21.432752</v>
+        <v>21.432752000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1254.820000</v>
+        <v>1254.82</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.335000</v>
+        <v>-121.33499999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>77168.196141</v>
+        <v>77168.196140999993</v>
       </c>
       <c r="AZ19" s="1">
-        <v>21.435610</v>
+        <v>21.43561</v>
       </c>
       <c r="BA19" s="1">
-        <v>1263.410000</v>
+        <v>1263.4100000000001</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.751000</v>
+        <v>-138.751</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>77178.835623</v>
+        <v>77178.835623000006</v>
       </c>
       <c r="BE19" s="1">
-        <v>21.438565</v>
+        <v>21.438565000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1304.010000</v>
+        <v>1304.01</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.280000</v>
+        <v>-220.28</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>77189.727473</v>
+        <v>77189.727473000006</v>
       </c>
       <c r="BJ19" s="1">
-        <v>21.441591</v>
+        <v>21.441590999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1374.190000</v>
+        <v>1374.19</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.737000</v>
+        <v>-355.73700000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>77200.867617</v>
+        <v>77200.867616999996</v>
       </c>
       <c r="BO19" s="1">
         <v>21.444685</v>
       </c>
       <c r="BP19" s="1">
-        <v>1489.150000</v>
+        <v>1489.15</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-575.839000</v>
+        <v>-575.83900000000006</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>77211.474594</v>
+        <v>77211.474593999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>21.447632</v>
+        <v>21.447631999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1621.310000</v>
+        <v>1621.31</v>
       </c>
       <c r="BV19" s="1">
-        <v>-823.625000</v>
+        <v>-823.625</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>77221.915000</v>
+        <v>77221.914999999994</v>
       </c>
       <c r="BY19" s="1">
-        <v>21.450532</v>
+        <v>21.450531999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1774.490000</v>
+        <v>1774.49</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1092.140000</v>
+        <v>-1092.1400000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>77234.482484</v>
+        <v>77234.482483999993</v>
       </c>
       <c r="CD19" s="1">
-        <v>21.454023</v>
+        <v>21.454022999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2192.570000</v>
+        <v>2192.5700000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1740.520000</v>
+        <v>-1740.52</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>77063.623110</v>
+        <v>77063.62311</v>
       </c>
       <c r="B20" s="1">
-        <v>21.406562</v>
+        <v>21.406562000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1149.190000</v>
+        <v>1149.19</v>
       </c>
       <c r="D20" s="1">
-        <v>-255.520000</v>
+        <v>-255.52</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>77074.032681</v>
+        <v>77074.032680999997</v>
       </c>
       <c r="G20" s="1">
         <v>21.409454</v>
       </c>
       <c r="H20" s="1">
-        <v>1171.420000</v>
+        <v>1171.42</v>
       </c>
       <c r="I20" s="1">
-        <v>-216.275000</v>
+        <v>-216.27500000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>77084.402045</v>
+        <v>77084.402044999995</v>
       </c>
       <c r="L20" s="1">
-        <v>21.412334</v>
+        <v>21.412334000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1199.910000</v>
+        <v>1199.9100000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.346000</v>
+        <v>-151.346</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>77094.964849</v>
+        <v>77094.964848999996</v>
       </c>
       <c r="Q20" s="1">
-        <v>21.415268</v>
+        <v>21.415268000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1208.280000</v>
+        <v>1208.28</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.478000</v>
+        <v>-129.47800000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>77105.096095</v>
+        <v>77105.096095000001</v>
       </c>
       <c r="V20" s="1">
-        <v>21.418082</v>
+        <v>21.418081999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>1216.050000</v>
+        <v>1216.05</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.778000</v>
+        <v>-108.77800000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>77115.647985</v>
+        <v>77115.647985000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>21.421013</v>
+        <v>21.421012999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1224.190000</v>
+        <v>1224.19</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.658600</v>
+        <v>-91.658600000000007</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>77126.121043</v>
+        <v>77126.121043000006</v>
       </c>
       <c r="AF20" s="1">
-        <v>21.423923</v>
+        <v>21.423922999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1229.140000</v>
+        <v>1229.1400000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-87.029600</v>
+        <v>-87.029600000000002</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>77137.030054</v>
+        <v>77137.030054000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>21.426953</v>
+        <v>21.426953000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1236.510000</v>
+        <v>1236.51</v>
       </c>
       <c r="AM20" s="1">
-        <v>-90.273000</v>
+        <v>-90.272999999999996</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>77147.565047</v>
+        <v>77147.565046999996</v>
       </c>
       <c r="AP20" s="1">
         <v>21.429879</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1244.640000</v>
+        <v>1244.6400000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.089000</v>
+        <v>-102.089</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>77158.297481</v>
+        <v>77158.297481000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>21.432860</v>
+        <v>21.432860000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>1254.820000</v>
+        <v>1254.82</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.340000</v>
+        <v>-121.34</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>77168.575579</v>
+        <v>77168.575578999997</v>
       </c>
       <c r="AZ20" s="1">
-        <v>21.435715</v>
+        <v>21.435714999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1263.410000</v>
+        <v>1263.4100000000001</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.736000</v>
+        <v>-138.73599999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>77179.192445</v>
+        <v>77179.192444999993</v>
       </c>
       <c r="BE20" s="1">
         <v>21.438665</v>
       </c>
       <c r="BF20" s="1">
-        <v>1304.010000</v>
+        <v>1304.01</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.262000</v>
+        <v>-220.262</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>77190.426830</v>
+        <v>77190.426829999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>21.441785</v>
+        <v>21.441784999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1374.170000</v>
+        <v>1374.17</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.681000</v>
+        <v>-355.68099999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>77200.986690</v>
+        <v>77200.986690000005</v>
       </c>
       <c r="BO20" s="1">
-        <v>21.444719</v>
+        <v>21.444718999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1489.110000</v>
+        <v>1489.11</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-575.805000</v>
+        <v>-575.80499999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>77211.612959</v>
+        <v>77211.612959000006</v>
       </c>
       <c r="BT20" s="1">
-        <v>21.447670</v>
+        <v>21.447669999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1621.350000</v>
+        <v>1621.35</v>
       </c>
       <c r="BV20" s="1">
-        <v>-823.582000</v>
+        <v>-823.58199999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>77222.337974</v>
+        <v>77222.337973999995</v>
       </c>
       <c r="BY20" s="1">
-        <v>21.450649</v>
+        <v>21.450648999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1774.390000</v>
+        <v>1774.39</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1092.050000</v>
+        <v>-1092.05</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>77235.022627</v>
+        <v>77235.022626999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>21.454173</v>
+        <v>21.454173000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2191.200000</v>
+        <v>2191.1999999999998</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1738.770000</v>
+        <v>-1738.77</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>77063.899879</v>
+        <v>77063.899879000004</v>
       </c>
       <c r="B21" s="1">
-        <v>21.406639</v>
+        <v>21.406638999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>1149.390000</v>
+        <v>1149.3900000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-255.468000</v>
+        <v>-255.46799999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>77074.312931</v>
+        <v>77074.312930999993</v>
       </c>
       <c r="G21" s="1">
-        <v>21.409531</v>
+        <v>21.409531000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1171.520000</v>
+        <v>1171.52</v>
       </c>
       <c r="I21" s="1">
-        <v>-215.431000</v>
+        <v>-215.43100000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>77084.756678</v>
+        <v>77084.756678000005</v>
       </c>
       <c r="L21" s="1">
-        <v>21.412432</v>
+        <v>21.412431999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1199.810000</v>
+        <v>1199.81</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.236000</v>
+        <v>-151.23599999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>77095.309036</v>
+        <v>77095.309036000006</v>
       </c>
       <c r="Q21" s="1">
         <v>21.415364</v>
       </c>
       <c r="R21" s="1">
-        <v>1208.290000</v>
+        <v>1208.29</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.447000</v>
+        <v>-129.447</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>77105.441311</v>
+        <v>77105.441311000002</v>
       </c>
       <c r="V21" s="1">
-        <v>21.418178</v>
+        <v>21.418178000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1215.970000</v>
+        <v>1215.97</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.778000</v>
+        <v>-108.77800000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>77116.344865</v>
+        <v>77116.344865000006</v>
       </c>
       <c r="AA21" s="1">
-        <v>21.421207</v>
+        <v>21.421206999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1224.260000</v>
+        <v>1224.26</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.578600</v>
+        <v>-91.578599999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>77126.810452</v>
+        <v>77126.810452000005</v>
       </c>
       <c r="AF21" s="1">
-        <v>21.424114</v>
+        <v>21.424113999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1229.170000</v>
+        <v>1229.17</v>
       </c>
       <c r="AH21" s="1">
-        <v>-87.096900</v>
+        <v>-87.096900000000005</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>77137.379701</v>
+        <v>77137.379700999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>21.427050</v>
+        <v>21.427050000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1236.520000</v>
+        <v>1236.52</v>
       </c>
       <c r="AM21" s="1">
-        <v>-90.282100</v>
+        <v>-90.2821</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>77147.925639</v>
+        <v>77147.925638999994</v>
       </c>
       <c r="AP21" s="1">
-        <v>21.429979</v>
+        <v>21.429978999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1244.640000</v>
+        <v>1244.6400000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.055000</v>
+        <v>-102.05500000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>77158.664024</v>
+        <v>77158.664023999998</v>
       </c>
       <c r="AU21" s="1">
         <v>21.432962</v>
       </c>
       <c r="AV21" s="1">
-        <v>1254.810000</v>
+        <v>1254.81</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.341000</v>
+        <v>-121.34099999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>77169.241738</v>
+        <v>77169.241737999997</v>
       </c>
       <c r="AZ21" s="1">
-        <v>21.435900</v>
+        <v>21.4359</v>
       </c>
       <c r="BA21" s="1">
-        <v>1263.390000</v>
+        <v>1263.3900000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.731000</v>
+        <v>-138.73099999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>77179.925037</v>
+        <v>77179.925036999994</v>
       </c>
       <c r="BE21" s="1">
-        <v>21.438868</v>
+        <v>21.438867999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1303.990000</v>
+        <v>1303.99</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.301000</v>
+        <v>-220.30099999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>77190.858883</v>
+        <v>77190.858882999994</v>
       </c>
       <c r="BJ21" s="1">
-        <v>21.441905</v>
+        <v>21.441904999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1374.150000</v>
+        <v>1374.15</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.711000</v>
+        <v>-355.71100000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>77201.397345</v>
+        <v>77201.397345000005</v>
       </c>
       <c r="BO21" s="1">
-        <v>21.444833</v>
+        <v>21.444832999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1489.110000</v>
+        <v>1489.11</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-575.803000</v>
+        <v>-575.803</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>77212.025122</v>
+        <v>77212.025122000006</v>
       </c>
       <c r="BT21" s="1">
         <v>21.447785</v>
       </c>
       <c r="BU21" s="1">
-        <v>1621.330000</v>
+        <v>1621.33</v>
       </c>
       <c r="BV21" s="1">
-        <v>-823.715000</v>
+        <v>-823.71500000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>77222.756068</v>
+        <v>77222.756068000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>21.450766</v>
+        <v>21.450766000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1774.430000</v>
+        <v>1774.43</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1092.000000</v>
+        <v>-1092</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>77235.560807</v>
+        <v>77235.560807000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>21.454322</v>
+        <v>21.454322000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>2191.530000</v>
+        <v>2191.5300000000002</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1741.150000</v>
+        <v>-1741.15</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>77064.245930</v>
+        <v>77064.245930000005</v>
       </c>
       <c r="B22" s="1">
-        <v>21.406735</v>
+        <v>21.406735000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1149.340000</v>
+        <v>1149.3399999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-255.554000</v>
+        <v>-255.554</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>77074.659591</v>
+        <v>77074.659591000003</v>
       </c>
       <c r="G22" s="1">
-        <v>21.409628</v>
+        <v>21.409628000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1171.730000</v>
+        <v>1171.73</v>
       </c>
       <c r="I22" s="1">
-        <v>-216.080000</v>
+        <v>-216.08</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>77085.101410</v>
+        <v>77085.101410000003</v>
       </c>
       <c r="L22" s="1">
-        <v>21.412528</v>
+        <v>21.412527999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>1200.180000</v>
+        <v>1200.18</v>
       </c>
       <c r="N22" s="1">
-        <v>-151.177000</v>
+        <v>-151.17699999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>77095.904768</v>
+        <v>77095.904767999993</v>
       </c>
       <c r="Q22" s="1">
-        <v>21.415529</v>
+        <v>21.415528999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1208.280000</v>
+        <v>1208.28</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.415000</v>
+        <v>-129.41499999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>77106.129262</v>
+        <v>77106.129262000002</v>
       </c>
       <c r="V22" s="1">
-        <v>21.418369</v>
+        <v>21.418368999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>1216.170000</v>
+        <v>1216.17</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.768000</v>
+        <v>-108.768</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>77116.691150</v>
+        <v>77116.691149999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>21.421303</v>
+        <v>21.421303000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>1224.260000</v>
+        <v>1224.26</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.629200</v>
+        <v>-91.629199999999997</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>77127.151229</v>
+        <v>77127.151228999996</v>
       </c>
       <c r="AF22" s="1">
-        <v>21.424209</v>
+        <v>21.424209000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1229.170000</v>
+        <v>1229.17</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.990000</v>
+        <v>-86.99</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>77137.725445</v>
+        <v>77137.725445000004</v>
       </c>
       <c r="AK22" s="1">
         <v>21.427146</v>
       </c>
       <c r="AL22" s="1">
-        <v>1236.510000</v>
+        <v>1236.51</v>
       </c>
       <c r="AM22" s="1">
-        <v>-90.270100</v>
+        <v>-90.270099999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>77148.601686</v>
+        <v>77148.601685999995</v>
       </c>
       <c r="AP22" s="1">
-        <v>21.430167</v>
+        <v>21.430167000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1244.650000</v>
+        <v>1244.6500000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.081000</v>
+        <v>-102.081</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>77159.345064</v>
+        <v>77159.345063999994</v>
       </c>
       <c r="AU22" s="1">
-        <v>21.433151</v>
+        <v>21.433150999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1254.820000</v>
+        <v>1254.82</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.344000</v>
+        <v>-121.34399999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>77169.658842</v>
+        <v>77169.658842000004</v>
       </c>
       <c r="AZ22" s="1">
-        <v>21.436016</v>
+        <v>21.436015999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1263.400000</v>
+        <v>1263.4000000000001</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.753000</v>
+        <v>-138.75299999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>77180.303980</v>
+        <v>77180.303979999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>21.438973</v>
+        <v>21.438973000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1304.030000</v>
+        <v>1304.03</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.279000</v>
+        <v>-220.279</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>77191.230349</v>
+        <v>77191.230349000005</v>
       </c>
       <c r="BJ22" s="1">
-        <v>21.442008</v>
+        <v>21.442008000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1374.180000</v>
+        <v>1374.18</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.725000</v>
+        <v>-355.72500000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>77201.794144</v>
       </c>
       <c r="BO22" s="1">
-        <v>21.444943</v>
+        <v>21.444942999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1489.160000</v>
+        <v>1489.16</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-575.856000</v>
+        <v>-575.85599999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>77212.452178</v>
+        <v>77212.452178000007</v>
       </c>
       <c r="BT22" s="1">
         <v>21.447903</v>
       </c>
       <c r="BU22" s="1">
-        <v>1621.370000</v>
+        <v>1621.37</v>
       </c>
       <c r="BV22" s="1">
-        <v>-823.726000</v>
+        <v>-823.726</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>77223.203492</v>
+        <v>77223.203492000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>21.450890</v>
+        <v>21.450890000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1774.500000</v>
+        <v>1774.5</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1092.230000</v>
+        <v>-1092.23</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>77236.101931</v>
+        <v>77236.101930999997</v>
       </c>
       <c r="CD22" s="1">
         <v>21.454473</v>
       </c>
       <c r="CE22" s="1">
-        <v>2192.720000</v>
+        <v>2192.7199999999998</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1738.900000</v>
+        <v>-1738.9</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>77064.585845</v>
+        <v>77064.585844999994</v>
       </c>
       <c r="B23" s="1">
-        <v>21.406829</v>
+        <v>21.406828999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>1149.410000</v>
+        <v>1149.4100000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-255.539000</v>
+        <v>-255.53899999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>77075.001337</v>
+        <v>77075.001336999994</v>
       </c>
       <c r="G23" s="1">
         <v>21.409723</v>
       </c>
       <c r="H23" s="1">
-        <v>1171.360000</v>
+        <v>1171.3599999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-215.833000</v>
+        <v>-215.833</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>77085.798757</v>
+        <v>77085.798756999997</v>
       </c>
       <c r="L23" s="1">
-        <v>21.412722</v>
+        <v>21.412721999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1199.820000</v>
+        <v>1199.82</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.107000</v>
+        <v>-151.107</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>77096.015339</v>
+        <v>77096.015339000005</v>
       </c>
       <c r="Q23" s="1">
-        <v>21.415560</v>
+        <v>21.415559999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1208.280000</v>
+        <v>1208.28</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.409000</v>
+        <v>-129.40899999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>77106.471501</v>
+        <v>77106.471501000007</v>
       </c>
       <c r="V23" s="1">
         <v>21.418464</v>
       </c>
       <c r="W23" s="1">
-        <v>1216.140000</v>
+        <v>1216.1400000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.673000</v>
+        <v>-108.673</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>77117.038271</v>
+        <v>77117.038270999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>21.421400</v>
+        <v>21.421399999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>1224.160000</v>
+        <v>1224.1600000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.614900</v>
+        <v>-91.614900000000006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>77127.496418</v>
+        <v>77127.496417999995</v>
       </c>
       <c r="AF23" s="1">
         <v>21.424305</v>
       </c>
       <c r="AG23" s="1">
-        <v>1229.130000</v>
+        <v>1229.1300000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-87.048400</v>
+        <v>-87.048400000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>77138.389272</v>
       </c>
       <c r="AK23" s="1">
-        <v>21.427330</v>
+        <v>21.427330000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1236.530000</v>
+        <v>1236.53</v>
       </c>
       <c r="AM23" s="1">
-        <v>-90.254800</v>
+        <v>-90.254800000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>77149.007909</v>
+        <v>77149.007909000007</v>
       </c>
       <c r="AP23" s="1">
-        <v>21.430280</v>
+        <v>21.43028</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1244.660000</v>
+        <v>1244.6600000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.071000</v>
+        <v>-102.071</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>77159.790439</v>
+        <v>77159.790439000004</v>
       </c>
       <c r="AU23" s="1">
-        <v>21.433275</v>
+        <v>21.433274999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1254.830000</v>
+        <v>1254.83</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.323000</v>
+        <v>-121.32299999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>77170.037289</v>
@@ -6028,210 +6444,210 @@
         <v>21.436121</v>
       </c>
       <c r="BA23" s="1">
-        <v>1263.400000</v>
+        <v>1263.4000000000001</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.768000</v>
+        <v>-138.768</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>77180.663095</v>
+        <v>77180.663094999996</v>
       </c>
       <c r="BE23" s="1">
         <v>21.439073</v>
       </c>
       <c r="BF23" s="1">
-        <v>1304.020000</v>
+        <v>1304.02</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.274000</v>
+        <v>-220.274</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>77191.606814</v>
+        <v>77191.606813999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>21.442113</v>
+        <v>21.442112999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1374.230000</v>
+        <v>1374.23</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.719000</v>
+        <v>-355.71899999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>77202.219743</v>
+        <v>77202.219742999994</v>
       </c>
       <c r="BO23" s="1">
-        <v>21.445061</v>
+        <v>21.445060999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1489.090000</v>
+        <v>1489.09</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.804000</v>
+        <v>-575.80399999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>77212.873778</v>
+        <v>77212.873777999994</v>
       </c>
       <c r="BT23" s="1">
-        <v>21.448020</v>
+        <v>21.44802</v>
       </c>
       <c r="BU23" s="1">
-        <v>1621.320000</v>
+        <v>1621.32</v>
       </c>
       <c r="BV23" s="1">
-        <v>-823.761000</v>
+        <v>-823.76099999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>77223.626546</v>
       </c>
       <c r="BY23" s="1">
-        <v>21.451007</v>
+        <v>21.451007000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1774.620000</v>
+        <v>1774.62</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1092.070000</v>
+        <v>-1092.07</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>77236.642563</v>
+        <v>77236.642563000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>21.454623</v>
+        <v>21.454623000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>2190.570000</v>
+        <v>2190.5700000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1740.680000</v>
+        <v>-1740.68</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>77065.268837</v>
+        <v>77065.268836999996</v>
       </c>
       <c r="B24" s="1">
-        <v>21.407019</v>
+        <v>21.407018999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>1149.450000</v>
+        <v>1149.45</v>
       </c>
       <c r="D24" s="1">
-        <v>-255.597000</v>
+        <v>-255.59700000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>77075.689286</v>
+        <v>77075.689285999993</v>
       </c>
       <c r="G24" s="1">
-        <v>21.409914</v>
+        <v>21.409914000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1170.850000</v>
+        <v>1170.8499999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-216.100000</v>
+        <v>-216.1</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>77086.147928</v>
+        <v>77086.147928000006</v>
       </c>
       <c r="L24" s="1">
-        <v>21.412819</v>
+        <v>21.412818999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1200.010000</v>
+        <v>1200.01</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.150000</v>
+        <v>-151.15</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>77096.357579</v>
+        <v>77096.357579000003</v>
       </c>
       <c r="Q24" s="1">
-        <v>21.415655</v>
+        <v>21.415655000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1208.320000</v>
+        <v>1208.32</v>
       </c>
       <c r="S24" s="1">
-        <v>-129.431000</v>
+        <v>-129.43100000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>77106.815725</v>
+        <v>77106.815724999993</v>
       </c>
       <c r="V24" s="1">
-        <v>21.418560</v>
+        <v>21.418559999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1216.190000</v>
+        <v>1216.19</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.762000</v>
+        <v>-108.762</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>77117.709854</v>
+        <v>77117.709854000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>21.421586</v>
+        <v>21.421586000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1224.160000</v>
+        <v>1224.1600000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.688400</v>
+        <v>-91.688400000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>77128.170481</v>
+        <v>77128.170480999994</v>
       </c>
       <c r="AF24" s="1">
-        <v>21.424492</v>
+        <v>21.424492000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1229.200000</v>
+        <v>1229.2</v>
       </c>
       <c r="AH24" s="1">
-        <v>-87.076800</v>
+        <v>-87.076800000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>77138.770483</v>
@@ -6240,664 +6656,665 @@
         <v>21.427436</v>
       </c>
       <c r="AL24" s="1">
-        <v>1236.530000</v>
+        <v>1236.53</v>
       </c>
       <c r="AM24" s="1">
-        <v>-90.276600</v>
+        <v>-90.276600000000002</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>77149.389333</v>
+        <v>77149.389332999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>21.430386</v>
+        <v>21.430385999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1244.660000</v>
+        <v>1244.6600000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.085000</v>
+        <v>-102.08499999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>77160.155999</v>
+        <v>77160.155998999995</v>
       </c>
       <c r="AU24" s="1">
         <v>21.433377</v>
       </c>
       <c r="AV24" s="1">
-        <v>1254.830000</v>
+        <v>1254.83</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.334000</v>
+        <v>-121.334</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>77170.413257</v>
+        <v>77170.413256999993</v>
       </c>
       <c r="AZ24" s="1">
-        <v>21.436226</v>
+        <v>21.436226000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1263.380000</v>
+        <v>1263.3800000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.756000</v>
+        <v>-138.756</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>77181.092154</v>
+        <v>77181.092153999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>21.439192</v>
+        <v>21.439191999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1304.010000</v>
+        <v>1304.01</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.283000</v>
+        <v>-220.28299999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>77192.038345</v>
+        <v>77192.038344999994</v>
       </c>
       <c r="BJ24" s="1">
-        <v>21.442233</v>
+        <v>21.442233000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1374.190000</v>
+        <v>1374.19</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.716000</v>
+        <v>-355.71600000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>77202.611054</v>
+        <v>77202.611053999994</v>
       </c>
       <c r="BO24" s="1">
-        <v>21.445170</v>
+        <v>21.445170000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1489.090000</v>
+        <v>1489.09</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-575.818000</v>
+        <v>-575.81799999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>77213.280497</v>
       </c>
       <c r="BT24" s="1">
-        <v>21.448133</v>
+        <v>21.448132999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1621.410000</v>
+        <v>1621.41</v>
       </c>
       <c r="BV24" s="1">
-        <v>-823.857000</v>
+        <v>-823.85699999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>77224.050145</v>
+        <v>77224.050145000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>21.451125</v>
+        <v>21.451125000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1774.550000</v>
+        <v>1774.55</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1092.020000</v>
+        <v>-1092.02</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>77237.180720</v>
+        <v>77237.180720000004</v>
       </c>
       <c r="CD24" s="1">
-        <v>21.454772</v>
+        <v>21.454771999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>2192.960000</v>
+        <v>2192.96</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1740.110000</v>
+        <v>-1740.11</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>77065.613071</v>
       </c>
       <c r="B25" s="1">
-        <v>21.407115</v>
+        <v>21.407115000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1149.510000</v>
+        <v>1149.51</v>
       </c>
       <c r="D25" s="1">
-        <v>-255.269000</v>
+        <v>-255.26900000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>77076.034997</v>
+        <v>77076.034996999995</v>
       </c>
       <c r="G25" s="1">
-        <v>21.410010</v>
+        <v>21.41001</v>
       </c>
       <c r="H25" s="1">
-        <v>1171.650000</v>
+        <v>1171.6500000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-216.304000</v>
+        <v>-216.304</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>77086.491161</v>
+        <v>77086.491160999998</v>
       </c>
       <c r="L25" s="1">
-        <v>21.412914</v>
+        <v>21.412914000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1200.220000</v>
+        <v>1200.22</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.196000</v>
+        <v>-151.196</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>77097.006878</v>
       </c>
       <c r="Q25" s="1">
-        <v>21.415835</v>
+        <v>21.415835000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1208.310000</v>
+        <v>1208.31</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.508000</v>
+        <v>-129.50800000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>77107.482348</v>
+        <v>77107.482348000005</v>
       </c>
       <c r="V25" s="1">
-        <v>21.418745</v>
+        <v>21.418745000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1216.190000</v>
+        <v>1216.19</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.626000</v>
+        <v>-108.626</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>77118.083838</v>
+        <v>77118.083838000006</v>
       </c>
       <c r="AA25" s="1">
-        <v>21.421690</v>
+        <v>21.421690000000002</v>
       </c>
       <c r="AB25" s="1">
-        <v>1224.110000</v>
+        <v>1224.1099999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.607100</v>
+        <v>-91.607100000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>77128.533056</v>
       </c>
       <c r="AF25" s="1">
-        <v>21.424593</v>
+        <v>21.424593000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1229.180000</v>
+        <v>1229.18</v>
       </c>
       <c r="AH25" s="1">
-        <v>-87.011700</v>
+        <v>-87.011700000000005</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>77139.117682</v>
+        <v>77139.117681999996</v>
       </c>
       <c r="AK25" s="1">
         <v>21.427533</v>
       </c>
       <c r="AL25" s="1">
-        <v>1236.540000</v>
+        <v>1236.54</v>
       </c>
       <c r="AM25" s="1">
-        <v>-90.249400</v>
+        <v>-90.249399999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>77149.748932</v>
+        <v>77149.748932000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>21.430486</v>
+        <v>21.430485999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1244.660000</v>
+        <v>1244.6600000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.097000</v>
+        <v>-102.09699999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>77160.520792</v>
+        <v>77160.520791999996</v>
       </c>
       <c r="AU25" s="1">
-        <v>21.433478</v>
+        <v>21.433478000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1254.820000</v>
+        <v>1254.82</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.325000</v>
+        <v>-121.325</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>77170.848249</v>
+        <v>77170.848249000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>21.436347</v>
+        <v>21.436347000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1263.380000</v>
+        <v>1263.3800000000001</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.751000</v>
+        <v>-138.751</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>77181.384299</v>
+        <v>77181.384298999998</v>
       </c>
       <c r="BE25" s="1">
         <v>21.439273</v>
       </c>
       <c r="BF25" s="1">
-        <v>1304.010000</v>
+        <v>1304.01</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.275000</v>
+        <v>-220.27500000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>77192.376636</v>
+        <v>77192.376636000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>21.442327</v>
+        <v>21.442326999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1374.150000</v>
+        <v>1374.15</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.735000</v>
+        <v>-355.73500000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>77203.032654</v>
+        <v>77203.032653999995</v>
       </c>
       <c r="BO25" s="1">
         <v>21.445287</v>
       </c>
       <c r="BP25" s="1">
-        <v>1489.130000</v>
+        <v>1489.13</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-575.796000</v>
+        <v>-575.79600000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>77213.696640</v>
+        <v>77213.696639999995</v>
       </c>
       <c r="BT25" s="1">
-        <v>21.448249</v>
+        <v>21.448249000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1621.410000</v>
+        <v>1621.41</v>
       </c>
       <c r="BV25" s="1">
-        <v>-823.764000</v>
+        <v>-823.76400000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>77224.498513</v>
+        <v>77224.498512999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>21.451250</v>
+        <v>21.451250000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1774.300000</v>
+        <v>1774.3</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1092.070000</v>
+        <v>-1092.07</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>77237.722384</v>
+        <v>77237.722383999993</v>
       </c>
       <c r="CD25" s="1">
-        <v>21.454923</v>
+        <v>21.454923000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2190.690000</v>
+        <v>2190.69</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1739.200000</v>
+        <v>-1739.2</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>77065.952853</v>
+        <v>77065.952852999995</v>
       </c>
       <c r="B26" s="1">
-        <v>21.407209</v>
+        <v>21.407209000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>1149.200000</v>
+        <v>1149.2</v>
       </c>
       <c r="D26" s="1">
-        <v>-255.498000</v>
+        <v>-255.49799999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>77076.379221</v>
+        <v>77076.379220999996</v>
       </c>
       <c r="G26" s="1">
-        <v>21.410105</v>
+        <v>21.410105000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1171.260000</v>
+        <v>1171.26</v>
       </c>
       <c r="I26" s="1">
-        <v>-216.042000</v>
+        <v>-216.042</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>77087.148855</v>
+        <v>77087.148855000007</v>
       </c>
       <c r="L26" s="1">
         <v>21.413097</v>
       </c>
       <c r="M26" s="1">
-        <v>1199.880000</v>
+        <v>1199.8800000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.041000</v>
+        <v>-151.041</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>77097.398714</v>
+        <v>77097.398713999995</v>
       </c>
       <c r="Q26" s="1">
         <v>21.415944</v>
       </c>
       <c r="R26" s="1">
-        <v>1208.270000</v>
+        <v>1208.27</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.472000</v>
+        <v>-129.47200000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>77107.851373</v>
+        <v>77107.851372999998</v>
       </c>
       <c r="V26" s="1">
-        <v>21.418848</v>
+        <v>21.418848000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1216.160000</v>
+        <v>1216.1600000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.717000</v>
+        <v>-108.717</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>77118.435007</v>
+        <v>77118.435006999993</v>
       </c>
       <c r="AA26" s="1">
-        <v>21.421788</v>
+        <v>21.421787999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1224.220000</v>
+        <v>1224.22</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.594000</v>
+        <v>-91.593999999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>77128.880256</v>
+        <v>77128.880256000004</v>
       </c>
       <c r="AF26" s="1">
-        <v>21.424689</v>
+        <v>21.424689000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1229.180000</v>
+        <v>1229.18</v>
       </c>
       <c r="AH26" s="1">
-        <v>-87.087700</v>
+        <v>-87.087699999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>77139.467893</v>
+        <v>77139.467892999994</v>
       </c>
       <c r="AK26" s="1">
-        <v>21.427630</v>
+        <v>21.427630000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1236.520000</v>
+        <v>1236.52</v>
       </c>
       <c r="AM26" s="1">
-        <v>-90.272400</v>
+        <v>-90.272400000000005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>77150.174995</v>
+        <v>77150.174994999994</v>
       </c>
       <c r="AP26" s="1">
-        <v>21.430604</v>
+        <v>21.430603999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1244.660000</v>
+        <v>1244.6600000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.117000</v>
+        <v>-102.117</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>77160.939174</v>
+        <v>77160.939173999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>21.433594</v>
+        <v>21.433593999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1254.820000</v>
+        <v>1254.82</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.335000</v>
+        <v>-121.33499999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>77171.132952</v>
       </c>
       <c r="AZ26" s="1">
-        <v>21.436426</v>
+        <v>21.436426000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1263.430000</v>
+        <v>1263.43</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.731000</v>
+        <v>-138.73099999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>77181.747835</v>
+        <v>77181.747835000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>21.439374</v>
+        <v>21.439374000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1304.000000</v>
+        <v>1304</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.279000</v>
+        <v>-220.279</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>77192.750091</v>
+        <v>77192.750090999994</v>
       </c>
       <c r="BJ26" s="1">
-        <v>21.442431</v>
+        <v>21.442430999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1374.200000</v>
+        <v>1374.2</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.715000</v>
+        <v>-355.71499999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>77203.426477</v>
+        <v>77203.426477000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>21.445396</v>
+        <v>21.445395999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1489.160000</v>
+        <v>1489.16</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-575.775000</v>
+        <v>-575.77499999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>77214.122704</v>
+        <v>77214.122703999994</v>
       </c>
       <c r="BT26" s="1">
-        <v>21.448367</v>
+        <v>21.448367000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1621.410000</v>
+        <v>1621.41</v>
       </c>
       <c r="BV26" s="1">
-        <v>-823.922000</v>
+        <v>-823.92200000000003</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>77224.938466</v>
+        <v>77224.938466000007</v>
       </c>
       <c r="BY26" s="1">
-        <v>21.451372</v>
+        <v>21.451371999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1774.510000</v>
+        <v>1774.51</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1092.160000</v>
+        <v>-1092.1600000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>77238.263720</v>
+        <v>77238.263720000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>21.455073</v>
+        <v>21.455072999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2191.940000</v>
+        <v>2191.94</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1741.040000</v>
+        <v>-1741.04</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>